--- a/BackTest/2019-10-30 BackTest FX.xlsx
+++ b/BackTest/2019-10-30 BackTest FX.xlsx
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -909,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -5176,17 +5176,13 @@
         <v>131.9</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>130</v>
-      </c>
-      <c r="K137" t="n">
-        <v>130</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
@@ -5215,104 +5211,96 @@
         <v>131.55</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>131</v>
+      </c>
+      <c r="C139" t="n">
+        <v>131</v>
+      </c>
+      <c r="D139" t="n">
+        <v>131</v>
+      </c>
+      <c r="E139" t="n">
+        <v>131</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1</v>
+      </c>
+      <c r="G139" t="n">
+        <v>131.35</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
         <v>130</v>
       </c>
-      <c r="K138" t="n">
+      <c r="K139" t="n">
         <v>130</v>
       </c>
-      <c r="L138" t="inlineStr">
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>131</v>
+      </c>
+      <c r="C140" t="n">
+        <v>131</v>
+      </c>
+      <c r="D140" t="n">
+        <v>131</v>
+      </c>
+      <c r="E140" t="n">
+        <v>131</v>
+      </c>
+      <c r="F140" t="n">
+        <v>2083.6582</v>
+      </c>
+      <c r="G140" t="n">
+        <v>131.15</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>131</v>
+      </c>
+      <c r="K140" t="n">
+        <v>130</v>
+      </c>
+      <c r="L140" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>131</v>
-      </c>
-      <c r="C139" t="n">
-        <v>131</v>
-      </c>
-      <c r="D139" t="n">
-        <v>131</v>
-      </c>
-      <c r="E139" t="n">
-        <v>131</v>
-      </c>
-      <c r="F139" t="n">
-        <v>1</v>
-      </c>
-      <c r="G139" t="n">
-        <v>131.35</v>
-      </c>
-      <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="n">
-        <v>131</v>
-      </c>
-      <c r="K139" t="n">
-        <v>130</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>131</v>
-      </c>
-      <c r="C140" t="n">
-        <v>131</v>
-      </c>
-      <c r="D140" t="n">
-        <v>131</v>
-      </c>
-      <c r="E140" t="n">
-        <v>131</v>
-      </c>
-      <c r="F140" t="n">
-        <v>2083.6582</v>
-      </c>
-      <c r="G140" t="n">
-        <v>131.15</v>
-      </c>
-      <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="n">
-        <v>131</v>
-      </c>
-      <c r="K140" t="n">
-        <v>131</v>
-      </c>
-      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5346,10 +5334,10 @@
         <v>0</v>
       </c>
       <c r="J141" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K141" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L141" t="inlineStr">
         <is>
@@ -5383,22 +5371,14 @@
         <v>130.85</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>131</v>
-      </c>
-      <c r="K142" t="n">
-        <v>131</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5426,22 +5406,14 @@
         <v>130.65</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>129</v>
-      </c>
-      <c r="K143" t="n">
-        <v>131</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5469,22 +5441,14 @@
         <v>130.5</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>130</v>
-      </c>
-      <c r="K144" t="n">
-        <v>131</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5512,22 +5476,14 @@
         <v>130.35</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>129</v>
-      </c>
-      <c r="K145" t="n">
-        <v>131</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5555,22 +5511,14 @@
         <v>130.25</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>129</v>
-      </c>
-      <c r="K146" t="n">
-        <v>131</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5598,22 +5546,14 @@
         <v>130.2</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>130</v>
-      </c>
-      <c r="K147" t="n">
-        <v>131</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5641,22 +5581,14 @@
         <v>130.15</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>129</v>
-      </c>
-      <c r="K148" t="n">
-        <v>131</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5684,22 +5616,14 @@
         <v>130.1</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>130</v>
-      </c>
-      <c r="K149" t="n">
-        <v>131</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5727,22 +5651,14 @@
         <v>130.05</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>130</v>
-      </c>
-      <c r="K150" t="n">
-        <v>131</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5770,22 +5686,14 @@
         <v>130</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
-        <v>129</v>
-      </c>
-      <c r="K151" t="n">
-        <v>131</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5813,22 +5721,14 @@
         <v>129.95</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>129</v>
-      </c>
-      <c r="K152" t="n">
-        <v>131</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5856,22 +5756,14 @@
         <v>129.95</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>130</v>
-      </c>
-      <c r="K153" t="n">
-        <v>131</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5899,22 +5791,14 @@
         <v>130</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>131</v>
-      </c>
-      <c r="K154" t="n">
-        <v>131</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5942,22 +5826,14 @@
         <v>130.1</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>132</v>
-      </c>
-      <c r="K155" t="n">
-        <v>131</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -5985,22 +5861,14 @@
         <v>130.2</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>132</v>
-      </c>
-      <c r="K156" t="n">
-        <v>131</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6028,22 +5896,14 @@
         <v>130.25</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>131</v>
-      </c>
-      <c r="K157" t="n">
-        <v>131</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6071,22 +5931,14 @@
         <v>130.35</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
-        <v>132</v>
-      </c>
-      <c r="K158" t="n">
-        <v>131</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6114,22 +5966,14 @@
         <v>130.4</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
-        <v>132</v>
-      </c>
-      <c r="K159" t="n">
-        <v>131</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6157,22 +6001,14 @@
         <v>130.45</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
-        <v>132</v>
-      </c>
-      <c r="K160" t="n">
-        <v>131</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6200,22 +6036,14 @@
         <v>130.4</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
-        <v>131</v>
-      </c>
-      <c r="K161" t="n">
-        <v>131</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6243,22 +6071,14 @@
         <v>130.4</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
-        <v>131</v>
-      </c>
-      <c r="K162" t="n">
-        <v>131</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6286,22 +6106,14 @@
         <v>130.5</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
-        <v>131</v>
-      </c>
-      <c r="K163" t="n">
-        <v>131</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6329,22 +6141,14 @@
         <v>130.5</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="n">
-        <v>130</v>
-      </c>
-      <c r="K164" t="n">
-        <v>131</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6372,22 +6176,14 @@
         <v>130.65</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="n">
-        <v>132</v>
-      </c>
-      <c r="K165" t="n">
-        <v>131</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6415,22 +6211,14 @@
         <v>130.7</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="n">
-        <v>130</v>
-      </c>
-      <c r="K166" t="n">
-        <v>131</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6458,22 +6246,14 @@
         <v>130.7</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="n">
-        <v>130</v>
-      </c>
-      <c r="K167" t="n">
-        <v>131</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6501,22 +6281,14 @@
         <v>130.75</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
-        <v>130</v>
-      </c>
-      <c r="K168" t="n">
-        <v>131</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6544,22 +6316,14 @@
         <v>130.75</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="n">
-        <v>130</v>
-      </c>
-      <c r="K169" t="n">
-        <v>131</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6587,22 +6351,14 @@
         <v>130.75</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="n">
-        <v>130</v>
-      </c>
-      <c r="K170" t="n">
-        <v>131</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6630,22 +6386,14 @@
         <v>130.8</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="n">
-        <v>130</v>
-      </c>
-      <c r="K171" t="n">
-        <v>131</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6673,22 +6421,14 @@
         <v>130.85</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="n">
-        <v>130</v>
-      </c>
-      <c r="K172" t="n">
-        <v>131</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6716,22 +6456,14 @@
         <v>130.85</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="n">
-        <v>130</v>
-      </c>
-      <c r="K173" t="n">
-        <v>131</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6759,22 +6491,14 @@
         <v>130.9</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="n">
-        <v>132</v>
-      </c>
-      <c r="K174" t="n">
-        <v>131</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6802,22 +6526,14 @@
         <v>130.9</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="n">
-        <v>132</v>
-      </c>
-      <c r="K175" t="n">
-        <v>131</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6845,22 +6561,14 @@
         <v>131.05</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="n">
-        <v>135</v>
-      </c>
-      <c r="K176" t="n">
-        <v>131</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6894,14 +6602,8 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>131</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6935,14 +6637,8 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>131</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6976,14 +6672,8 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>131</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7017,14 +6707,8 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>131</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7058,14 +6742,8 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>131</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7099,14 +6777,8 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>131</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7140,14 +6812,8 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>131</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7181,14 +6847,8 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>131</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7222,14 +6882,8 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>131</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7263,14 +6917,8 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>131</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7304,14 +6952,8 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>131</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7342,17 +6984,11 @@
         <v>0</v>
       </c>
       <c r="I188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>131</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7383,17 +7019,11 @@
         <v>0</v>
       </c>
       <c r="I189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>131</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7427,14 +7057,8 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>131</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7468,14 +7092,8 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>131</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7509,14 +7127,8 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>131</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7550,14 +7162,8 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>131</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7591,14 +7197,8 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>131</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7632,14 +7232,8 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>131</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7673,14 +7267,8 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>131</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7714,14 +7302,8 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>131</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7755,14 +7337,8 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>131</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7796,14 +7372,8 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>131</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7837,14 +7407,8 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>131</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7878,14 +7442,8 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>131</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7919,14 +7477,8 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>131</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7960,14 +7512,8 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>131</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -8001,14 +7547,8 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>131</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -8042,14 +7582,8 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>131</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -8083,14 +7617,8 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>131</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8124,14 +7652,8 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>131</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8165,14 +7687,8 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>131</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8206,14 +7722,8 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>131</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8247,14 +7757,8 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>131</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8288,14 +7792,8 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>131</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8329,14 +7827,8 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>131</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8370,14 +7862,8 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>131</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8411,14 +7897,8 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>131</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8452,14 +7932,8 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>131</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8493,14 +7967,8 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>131</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8534,14 +8002,8 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>131</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8575,14 +8037,8 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>131</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8616,14 +8072,8 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>131</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8657,14 +8107,8 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>131</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8698,14 +8142,8 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>131</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8739,14 +8177,8 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>131</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8780,14 +8212,8 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>131</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8821,14 +8247,8 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>131</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8862,14 +8282,8 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>131</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8903,14 +8317,8 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>131</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8944,14 +8352,8 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>131</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8985,14 +8387,8 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>131</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -9026,14 +8422,8 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>131</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -9067,14 +8457,8 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>131</v>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -9108,14 +8492,8 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>131</v>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -9149,14 +8527,8 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>131</v>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -9190,14 +8562,8 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>131</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -9231,14 +8597,8 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>131</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -9272,14 +8632,8 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>131</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -9313,14 +8667,8 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
-        <v>131</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -9354,14 +8702,8 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>131</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -9395,14 +8737,8 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>131</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -9436,14 +8772,8 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>131</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -9477,14 +8807,8 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>131</v>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -9518,14 +8842,8 @@
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
-        <v>131</v>
-      </c>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9559,14 +8877,8 @@
         <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
-        <v>131</v>
-      </c>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9600,14 +8912,8 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="n">
-        <v>131</v>
-      </c>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9641,14 +8947,8 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="n">
-        <v>131</v>
-      </c>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -9682,14 +8982,8 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="n">
-        <v>131</v>
-      </c>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -9723,14 +9017,8 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="n">
-        <v>131</v>
-      </c>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9764,14 +9052,8 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="n">
-        <v>131</v>
-      </c>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9805,14 +9087,8 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="n">
-        <v>131</v>
-      </c>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9846,14 +9122,8 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="n">
-        <v>131</v>
-      </c>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9887,14 +9157,8 @@
         <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="n">
-        <v>131</v>
-      </c>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr"/>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9928,14 +9192,8 @@
         <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="n">
-        <v>131</v>
-      </c>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -9969,14 +9227,8 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="n">
-        <v>131</v>
-      </c>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -10010,14 +9262,8 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="n">
-        <v>131</v>
-      </c>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr"/>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -10051,14 +9297,8 @@
         <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="n">
-        <v>131</v>
-      </c>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="inlineStr"/>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -10092,14 +9332,8 @@
         <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="n">
-        <v>131</v>
-      </c>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="inlineStr"/>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -10133,14 +9367,8 @@
         <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="n">
-        <v>131</v>
-      </c>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="inlineStr"/>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -10174,14 +9402,8 @@
         <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="n">
-        <v>131</v>
-      </c>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="inlineStr"/>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -10215,14 +9437,8 @@
         <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="n">
-        <v>131</v>
-      </c>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="inlineStr"/>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -10256,14 +9472,8 @@
         <v>0</v>
       </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="n">
-        <v>131</v>
-      </c>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="inlineStr"/>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -10297,14 +9507,8 @@
         <v>0</v>
       </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="n">
-        <v>131</v>
-      </c>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="inlineStr"/>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -10338,14 +9542,8 @@
         <v>0</v>
       </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="n">
-        <v>131</v>
-      </c>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="inlineStr"/>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -10379,14 +9577,8 @@
         <v>0</v>
       </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="n">
-        <v>131</v>
-      </c>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="inlineStr"/>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -10420,14 +9612,8 @@
         <v>0</v>
       </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="n">
-        <v>131</v>
-      </c>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="inlineStr"/>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -10461,14 +9647,8 @@
         <v>0</v>
       </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="n">
-        <v>131</v>
-      </c>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="inlineStr"/>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -10502,14 +9682,8 @@
         <v>0</v>
       </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="n">
-        <v>131</v>
-      </c>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="inlineStr"/>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -10543,14 +9717,8 @@
         <v>0</v>
       </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="n">
-        <v>131</v>
-      </c>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="inlineStr"/>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -10584,14 +9752,8 @@
         <v>0</v>
       </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="n">
-        <v>131</v>
-      </c>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="inlineStr"/>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -10625,14 +9787,8 @@
         <v>0</v>
       </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="n">
-        <v>131</v>
-      </c>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="inlineStr"/>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -10666,14 +9822,8 @@
         <v>0</v>
       </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="n">
-        <v>131</v>
-      </c>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="inlineStr"/>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -10707,14 +9857,8 @@
         <v>0</v>
       </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="n">
-        <v>131</v>
-      </c>
-      <c r="L270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="inlineStr"/>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -10748,14 +9892,8 @@
         <v>0</v>
       </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="n">
-        <v>131</v>
-      </c>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="inlineStr"/>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -10789,14 +9927,8 @@
         <v>0</v>
       </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="n">
-        <v>131</v>
-      </c>
-      <c r="L272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="inlineStr"/>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -10830,14 +9962,8 @@
         <v>0</v>
       </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="n">
-        <v>131</v>
-      </c>
-      <c r="L273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="inlineStr"/>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -10871,14 +9997,8 @@
         <v>0</v>
       </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="n">
-        <v>131</v>
-      </c>
-      <c r="L274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="inlineStr"/>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -10912,14 +10032,8 @@
         <v>0</v>
       </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="n">
-        <v>131</v>
-      </c>
-      <c r="L275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="inlineStr"/>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -10953,14 +10067,8 @@
         <v>0</v>
       </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="n">
-        <v>131</v>
-      </c>
-      <c r="L276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="inlineStr"/>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -10994,14 +10102,8 @@
         <v>0</v>
       </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="n">
-        <v>131</v>
-      </c>
-      <c r="L277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="inlineStr"/>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -11035,14 +10137,8 @@
         <v>0</v>
       </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="n">
-        <v>131</v>
-      </c>
-      <c r="L278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="inlineStr"/>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -11076,14 +10172,8 @@
         <v>0</v>
       </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="n">
-        <v>131</v>
-      </c>
-      <c r="L279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="inlineStr"/>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -11117,14 +10207,8 @@
         <v>0</v>
       </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="n">
-        <v>131</v>
-      </c>
-      <c r="L280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="inlineStr"/>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -11158,14 +10242,8 @@
         <v>0</v>
       </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="n">
-        <v>131</v>
-      </c>
-      <c r="L281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="inlineStr"/>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -11199,14 +10277,8 @@
         <v>0</v>
       </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="n">
-        <v>131</v>
-      </c>
-      <c r="L282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="inlineStr"/>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -11240,14 +10312,8 @@
         <v>0</v>
       </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="n">
-        <v>131</v>
-      </c>
-      <c r="L283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
+      <c r="L283" t="inlineStr"/>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -11281,14 +10347,8 @@
         <v>0</v>
       </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="n">
-        <v>131</v>
-      </c>
-      <c r="L284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
+      <c r="L284" t="inlineStr"/>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -11322,14 +10382,8 @@
         <v>0</v>
       </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="n">
-        <v>131</v>
-      </c>
-      <c r="L285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
+      <c r="L285" t="inlineStr"/>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -11363,14 +10417,8 @@
         <v>0</v>
       </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="n">
-        <v>131</v>
-      </c>
-      <c r="L286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
+      <c r="L286" t="inlineStr"/>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -11404,14 +10452,8 @@
         <v>0</v>
       </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="n">
-        <v>131</v>
-      </c>
-      <c r="L287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
+      <c r="L287" t="inlineStr"/>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -11445,14 +10487,8 @@
         <v>0</v>
       </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="n">
-        <v>131</v>
-      </c>
-      <c r="L288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
+      <c r="L288" t="inlineStr"/>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -11486,14 +10522,8 @@
         <v>0</v>
       </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="n">
-        <v>131</v>
-      </c>
-      <c r="L289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
+      <c r="L289" t="inlineStr"/>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -11527,14 +10557,8 @@
         <v>0</v>
       </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="n">
-        <v>131</v>
-      </c>
-      <c r="L290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
+      <c r="L290" t="inlineStr"/>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -11568,14 +10592,8 @@
         <v>0</v>
       </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="n">
-        <v>131</v>
-      </c>
-      <c r="L291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
+      <c r="L291" t="inlineStr"/>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -11609,14 +10627,8 @@
         <v>0</v>
       </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="n">
-        <v>131</v>
-      </c>
-      <c r="L292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
+      <c r="L292" t="inlineStr"/>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -11650,14 +10662,8 @@
         <v>0</v>
       </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="n">
-        <v>131</v>
-      </c>
-      <c r="L293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
+      <c r="L293" t="inlineStr"/>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -11691,14 +10697,8 @@
         <v>0</v>
       </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="n">
-        <v>131</v>
-      </c>
-      <c r="L294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
+      <c r="L294" t="inlineStr"/>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -11732,14 +10732,8 @@
         <v>0</v>
       </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="n">
-        <v>131</v>
-      </c>
-      <c r="L295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
+      <c r="L295" t="inlineStr"/>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -11773,14 +10767,8 @@
         <v>0</v>
       </c>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="n">
-        <v>131</v>
-      </c>
-      <c r="L296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
+      <c r="L296" t="inlineStr"/>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -11814,14 +10802,8 @@
         <v>0</v>
       </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="n">
-        <v>131</v>
-      </c>
-      <c r="L297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
+      <c r="L297" t="inlineStr"/>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -11855,14 +10837,8 @@
         <v>0</v>
       </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="n">
-        <v>131</v>
-      </c>
-      <c r="L298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
+      <c r="L298" t="inlineStr"/>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -11896,14 +10872,8 @@
         <v>0</v>
       </c>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="n">
-        <v>131</v>
-      </c>
-      <c r="L299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
+      <c r="L299" t="inlineStr"/>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -11937,14 +10907,8 @@
         <v>0</v>
       </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="n">
-        <v>131</v>
-      </c>
-      <c r="L300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
+      <c r="L300" t="inlineStr"/>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -11978,14 +10942,8 @@
         <v>0</v>
       </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="n">
-        <v>131</v>
-      </c>
-      <c r="L301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
+      <c r="L301" t="inlineStr"/>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -12019,14 +10977,8 @@
         <v>0</v>
       </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="n">
-        <v>131</v>
-      </c>
-      <c r="L302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
+      <c r="L302" t="inlineStr"/>
       <c r="M302" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-30 BackTest FX.xlsx
+++ b/BackTest/2019-10-30 BackTest FX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M302"/>
+  <dimension ref="A1:M303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,19 +436,19 @@
         <v>138</v>
       </c>
       <c r="C2" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D2" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E2" t="n">
         <v>138</v>
       </c>
       <c r="F2" t="n">
-        <v>4060.7795</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>136.75</v>
+        <v>136.15</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>138</v>
       </c>
       <c r="F3" t="n">
-        <v>5901.331</v>
+        <v>4060.7795</v>
       </c>
       <c r="G3" t="n">
-        <v>136.85</v>
+        <v>136.3166666666667</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,7 +503,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C4" t="n">
         <v>139</v>
@@ -512,13 +512,13 @@
         <v>139</v>
       </c>
       <c r="E4" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>5901.331</v>
       </c>
       <c r="G4" t="n">
-        <v>137</v>
+        <v>136.4833333333333</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -541,19 +541,19 @@
         <v>139</v>
       </c>
       <c r="C5" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D5" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E5" t="n">
         <v>139</v>
       </c>
       <c r="F5" t="n">
-        <v>12861.77344347826</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>137.2</v>
+        <v>136.6666666666667</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C6" t="n">
         <v>141</v>
       </c>
       <c r="D6" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E6" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F6" t="n">
-        <v>3564.1056</v>
+        <v>12861.77344347826</v>
       </c>
       <c r="G6" t="n">
-        <v>137.5</v>
+        <v>136.8333333333333</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C7" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D7" t="n">
         <v>142</v>
       </c>
       <c r="E7" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F7" t="n">
-        <v>3368.8092</v>
+        <v>3564.1056</v>
       </c>
       <c r="G7" t="n">
-        <v>137.85</v>
+        <v>136.9833333333333</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -646,19 +646,19 @@
         <v>142</v>
       </c>
       <c r="C8" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D8" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E8" t="n">
         <v>142</v>
       </c>
       <c r="F8" t="n">
-        <v>7310.5323</v>
+        <v>3368.8092</v>
       </c>
       <c r="G8" t="n">
-        <v>138.2</v>
+        <v>137.15</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
+        <v>142</v>
+      </c>
+      <c r="C9" t="n">
         <v>143</v>
       </c>
-      <c r="C9" t="n">
-        <v>144</v>
-      </c>
       <c r="D9" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E9" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F9" t="n">
-        <v>1328.2089</v>
+        <v>7310.5323</v>
       </c>
       <c r="G9" t="n">
-        <v>138.5</v>
+        <v>137.3666666666667</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -722,13 +722,13 @@
         <v>144</v>
       </c>
       <c r="E10" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F10" t="n">
-        <v>30630.8841</v>
+        <v>1328.2089</v>
       </c>
       <c r="G10" t="n">
-        <v>138.8</v>
+        <v>137.55</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -757,13 +757,13 @@
         <v>144</v>
       </c>
       <c r="E11" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F11" t="n">
-        <v>8379.409600000001</v>
+        <v>30630.8841</v>
       </c>
       <c r="G11" t="n">
-        <v>139.05</v>
+        <v>137.7</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C12" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D12" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E12" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F12" t="n">
-        <v>8249.654699999999</v>
+        <v>8379.409600000001</v>
       </c>
       <c r="G12" t="n">
-        <v>139.4</v>
+        <v>137.85</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -818,28 +818,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C13" t="n">
         <v>145</v>
       </c>
       <c r="D13" t="n">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E13" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F13" t="n">
-        <v>1328.2068</v>
+        <v>8249.654699999999</v>
       </c>
       <c r="G13" t="n">
-        <v>139.9</v>
+        <v>137.9833333333333</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C14" t="n">
         <v>145</v>
       </c>
       <c r="D14" t="n">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E14" t="n">
         <v>145</v>
       </c>
       <c r="F14" t="n">
-        <v>1105.3586</v>
+        <v>1328.2068</v>
       </c>
       <c r="G14" t="n">
-        <v>140.25</v>
+        <v>138.1166666666667</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C15" t="n">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D15" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E15" t="n">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F15" t="n">
-        <v>538.6398</v>
+        <v>1105.3586</v>
       </c>
       <c r="G15" t="n">
-        <v>140.55</v>
+        <v>138.2833333333333</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C16" t="n">
         <v>143</v>
       </c>
       <c r="D16" t="n">
+        <v>144</v>
+      </c>
+      <c r="E16" t="n">
         <v>143</v>
       </c>
-      <c r="E16" t="n">
-        <v>141</v>
-      </c>
       <c r="F16" t="n">
-        <v>4729.4261</v>
+        <v>538.6398</v>
       </c>
       <c r="G16" t="n">
-        <v>140.8</v>
+        <v>138.4166666666667</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C17" t="n">
         <v>143</v>
@@ -967,13 +967,13 @@
         <v>143</v>
       </c>
       <c r="E17" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F17" t="n">
-        <v>5647.3413</v>
+        <v>4729.4261</v>
       </c>
       <c r="G17" t="n">
-        <v>141.1</v>
+        <v>138.55</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C18" t="n">
         <v>143</v>
@@ -1002,13 +1002,13 @@
         <v>143</v>
       </c>
       <c r="E18" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F18" t="n">
-        <v>1941.5777</v>
+        <v>5647.3413</v>
       </c>
       <c r="G18" t="n">
-        <v>141.35</v>
+        <v>138.6833333333333</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C19" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D19" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E19" t="n">
         <v>143</v>
       </c>
       <c r="F19" t="n">
-        <v>1663.808</v>
+        <v>1941.5777</v>
       </c>
       <c r="G19" t="n">
-        <v>141.65</v>
+        <v>138.7666666666667</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C20" t="n">
         <v>144</v>
@@ -1072,13 +1072,13 @@
         <v>144</v>
       </c>
       <c r="E20" t="n">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F20" t="n">
-        <v>8731.825699999999</v>
+        <v>1663.808</v>
       </c>
       <c r="G20" t="n">
-        <v>141.95</v>
+        <v>138.8666666666667</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>142</v>
       </c>
       <c r="C21" t="n">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D21" t="n">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E21" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F21" t="n">
-        <v>3375.0335</v>
+        <v>8731.825699999999</v>
       </c>
       <c r="G21" t="n">
-        <v>142.15</v>
+        <v>138.9666666666667</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C22" t="n">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D22" t="n">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E22" t="n">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F22" t="n">
-        <v>2</v>
+        <v>3375.0335</v>
       </c>
       <c r="G22" t="n">
-        <v>142.45</v>
+        <v>139.05</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,7 +1168,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C23" t="n">
         <v>144</v>
@@ -1177,13 +1177,13 @@
         <v>144</v>
       </c>
       <c r="E23" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F23" t="n">
-        <v>22434.8204</v>
+        <v>2</v>
       </c>
       <c r="G23" t="n">
-        <v>142.7</v>
+        <v>139.1666666666667</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C24" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D24" t="n">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E24" t="n">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F24" t="n">
-        <v>12476.1103</v>
+        <v>22434.8204</v>
       </c>
       <c r="G24" t="n">
-        <v>143</v>
+        <v>139.2666666666667</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C25" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D25" t="n">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E25" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F25" t="n">
-        <v>621.2386</v>
+        <v>12476.1103</v>
       </c>
       <c r="G25" t="n">
-        <v>143.25</v>
+        <v>139.3833333333333</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1285,10 +1285,10 @@
         <v>144</v>
       </c>
       <c r="F26" t="n">
-        <v>6578.7614</v>
+        <v>621.2386</v>
       </c>
       <c r="G26" t="n">
-        <v>143.4</v>
+        <v>139.4833333333333</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1320,10 +1320,10 @@
         <v>144</v>
       </c>
       <c r="F27" t="n">
-        <v>2706.7663</v>
+        <v>6578.7614</v>
       </c>
       <c r="G27" t="n">
-        <v>143.5</v>
+        <v>139.5666666666667</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C28" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D28" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E28" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F28" t="n">
-        <v>2264.6227</v>
+        <v>2706.7663</v>
       </c>
       <c r="G28" t="n">
-        <v>143.65</v>
+        <v>139.6666666666667</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1381,19 +1381,19 @@
         <v>145</v>
       </c>
       <c r="C29" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D29" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E29" t="n">
         <v>145</v>
       </c>
       <c r="F29" t="n">
-        <v>15702.42959726027</v>
+        <v>2264.6227</v>
       </c>
       <c r="G29" t="n">
-        <v>143.75</v>
+        <v>139.7833333333333</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,7 +1413,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C30" t="n">
         <v>146</v>
@@ -1425,10 +1425,10 @@
         <v>145</v>
       </c>
       <c r="F30" t="n">
-        <v>51828.6866</v>
+        <v>15702.42959726027</v>
       </c>
       <c r="G30" t="n">
-        <v>143.9</v>
+        <v>139.9333333333333</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>146</v>
       </c>
       <c r="C31" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D31" t="n">
         <v>146</v>
@@ -1460,10 +1460,10 @@
         <v>145</v>
       </c>
       <c r="F31" t="n">
-        <v>19503.6374</v>
+        <v>51828.6866</v>
       </c>
       <c r="G31" t="n">
-        <v>144.05</v>
+        <v>140.0666666666667</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C32" t="n">
         <v>145</v>
       </c>
       <c r="D32" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E32" t="n">
         <v>145</v>
       </c>
       <c r="F32" t="n">
-        <v>9973.1446</v>
+        <v>19503.6374</v>
       </c>
       <c r="G32" t="n">
-        <v>144.05</v>
+        <v>140.2</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>145</v>
       </c>
       <c r="F33" t="n">
-        <v>2666.0896</v>
+        <v>9973.1446</v>
       </c>
       <c r="G33" t="n">
-        <v>143.95</v>
+        <v>140.3333333333333</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C34" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D34" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E34" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F34" t="n">
-        <v>8873.383599999999</v>
+        <v>2666.0896</v>
       </c>
       <c r="G34" t="n">
-        <v>143.9</v>
+        <v>140.4666666666667</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C35" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D35" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E35" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F35" t="n">
-        <v>1931.034482758621</v>
+        <v>8873.383599999999</v>
       </c>
       <c r="G35" t="n">
-        <v>143.95</v>
+        <v>140.6</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,7 +1623,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C36" t="n">
         <v>145</v>
@@ -1632,13 +1632,13 @@
         <v>145</v>
       </c>
       <c r="E36" t="n">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F36" t="n">
-        <v>121.8012</v>
+        <v>1931.034482758621</v>
       </c>
       <c r="G36" t="n">
-        <v>144.05</v>
+        <v>140.75</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C37" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D37" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E37" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F37" t="n">
-        <v>3042.4965</v>
+        <v>121.8012</v>
       </c>
       <c r="G37" t="n">
-        <v>144.15</v>
+        <v>140.8833333333333</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1705,10 +1705,10 @@
         <v>144</v>
       </c>
       <c r="F38" t="n">
-        <v>4870.026</v>
+        <v>3042.4965</v>
       </c>
       <c r="G38" t="n">
-        <v>144.2</v>
+        <v>141</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1731,19 +1731,19 @@
         <v>144</v>
       </c>
       <c r="C39" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D39" t="n">
         <v>144</v>
       </c>
       <c r="E39" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F39" t="n">
-        <v>7714.1363</v>
+        <v>4870.026</v>
       </c>
       <c r="G39" t="n">
-        <v>144.2</v>
+        <v>141.1166666666667</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1766,19 +1766,19 @@
         <v>144</v>
       </c>
       <c r="C40" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D40" t="n">
         <v>144</v>
       </c>
       <c r="E40" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F40" t="n">
-        <v>317.1284</v>
+        <v>7714.1363</v>
       </c>
       <c r="G40" t="n">
-        <v>144.3</v>
+        <v>141.2166666666667</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1801,19 +1801,19 @@
         <v>144</v>
       </c>
       <c r="C41" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D41" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E41" t="n">
         <v>144</v>
       </c>
       <c r="F41" t="n">
-        <v>4073.7585</v>
+        <v>317.1284</v>
       </c>
       <c r="G41" t="n">
-        <v>144.4</v>
+        <v>141.3333333333333</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1836,19 +1836,19 @@
         <v>144</v>
       </c>
       <c r="C42" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D42" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E42" t="n">
         <v>144</v>
       </c>
       <c r="F42" t="n">
-        <v>1000</v>
+        <v>4073.7585</v>
       </c>
       <c r="G42" t="n">
-        <v>144.4</v>
+        <v>141.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1880,10 +1880,10 @@
         <v>144</v>
       </c>
       <c r="F43" t="n">
-        <v>4100.4941</v>
+        <v>1000</v>
       </c>
       <c r="G43" t="n">
-        <v>144.45</v>
+        <v>141.6166666666667</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>144</v>
       </c>
       <c r="F44" t="n">
-        <v>3485.2916</v>
+        <v>4100.4941</v>
       </c>
       <c r="G44" t="n">
-        <v>144.4</v>
+        <v>141.75</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1950,10 +1950,10 @@
         <v>144</v>
       </c>
       <c r="F45" t="n">
-        <v>502.9861</v>
+        <v>3485.2916</v>
       </c>
       <c r="G45" t="n">
-        <v>144.4</v>
+        <v>141.8666666666667</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1985,10 +1985,10 @@
         <v>144</v>
       </c>
       <c r="F46" t="n">
-        <v>30.0677</v>
+        <v>502.9861</v>
       </c>
       <c r="G46" t="n">
-        <v>144.4</v>
+        <v>141.9833333333333</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C47" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D47" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E47" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F47" t="n">
-        <v>9828.4413</v>
+        <v>30.0677</v>
       </c>
       <c r="G47" t="n">
-        <v>144.45</v>
+        <v>142.15</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2046,19 +2046,19 @@
         <v>145</v>
       </c>
       <c r="C48" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E48" t="n">
         <v>145</v>
       </c>
       <c r="F48" t="n">
-        <v>8888</v>
+        <v>9828.4413</v>
       </c>
       <c r="G48" t="n">
-        <v>144.45</v>
+        <v>142.2833333333333</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2081,19 +2081,19 @@
         <v>145</v>
       </c>
       <c r="C49" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D49" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E49" t="n">
         <v>145</v>
       </c>
       <c r="F49" t="n">
-        <v>10292.8995</v>
+        <v>8888</v>
       </c>
       <c r="G49" t="n">
-        <v>144.45</v>
+        <v>142.4333333333333</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2116,19 +2116,19 @@
         <v>145</v>
       </c>
       <c r="C50" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D50" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E50" t="n">
         <v>145</v>
       </c>
       <c r="F50" t="n">
-        <v>24178.95130689655</v>
+        <v>10292.8995</v>
       </c>
       <c r="G50" t="n">
-        <v>144.4</v>
+        <v>142.5666666666667</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
+        <v>145</v>
+      </c>
+      <c r="C51" t="n">
         <v>146</v>
       </c>
-      <c r="C51" t="n">
-        <v>147</v>
-      </c>
       <c r="D51" t="n">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E51" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F51" t="n">
-        <v>1736.850410344828</v>
+        <v>24178.95130689655</v>
       </c>
       <c r="G51" t="n">
-        <v>144.4</v>
+        <v>142.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
+        <v>146</v>
+      </c>
+      <c r="C52" t="n">
         <v>147</v>
       </c>
-      <c r="C52" t="n">
-        <v>148</v>
-      </c>
       <c r="D52" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E52" t="n">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F52" t="n">
-        <v>35353.5953472973</v>
+        <v>1736.850410344828</v>
       </c>
       <c r="G52" t="n">
-        <v>144.5</v>
+        <v>142.85</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,7 +2218,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C53" t="n">
         <v>148</v>
@@ -2227,13 +2227,13 @@
         <v>148</v>
       </c>
       <c r="E53" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F53" t="n">
-        <v>1.35</v>
+        <v>35353.5953472973</v>
       </c>
       <c r="G53" t="n">
-        <v>144.65</v>
+        <v>143.0166666666667</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2265,10 +2265,10 @@
         <v>148</v>
       </c>
       <c r="F54" t="n">
-        <v>2.9788</v>
+        <v>1.35</v>
       </c>
       <c r="G54" t="n">
-        <v>144.85</v>
+        <v>143.1833333333333</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,7 +2288,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C55" t="n">
         <v>148</v>
@@ -2297,13 +2297,13 @@
         <v>148</v>
       </c>
       <c r="E55" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F55" t="n">
-        <v>148.2</v>
+        <v>2.9788</v>
       </c>
       <c r="G55" t="n">
-        <v>144.95</v>
+        <v>143.35</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2326,19 +2326,19 @@
         <v>147</v>
       </c>
       <c r="C56" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D56" t="n">
         <v>148</v>
       </c>
       <c r="E56" t="n">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F56" t="n">
-        <v>6163.2757</v>
+        <v>148.2</v>
       </c>
       <c r="G56" t="n">
-        <v>145.15</v>
+        <v>143.5166666666667</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C57" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D57" t="n">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E57" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F57" t="n">
-        <v>1</v>
+        <v>6163.2757</v>
       </c>
       <c r="G57" t="n">
-        <v>145.25</v>
+        <v>143.6666666666667</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C58" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D58" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E58" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F58" t="n">
-        <v>136</v>
+        <v>1</v>
       </c>
       <c r="G58" t="n">
-        <v>145.3</v>
+        <v>143.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2431,19 +2431,19 @@
         <v>145</v>
       </c>
       <c r="C59" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D59" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E59" t="n">
         <v>145</v>
       </c>
       <c r="F59" t="n">
-        <v>2</v>
+        <v>136</v>
       </c>
       <c r="G59" t="n">
-        <v>145.35</v>
+        <v>143.9166666666667</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,7 +2463,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C60" t="n">
         <v>146</v>
@@ -2472,13 +2472,13 @@
         <v>146</v>
       </c>
       <c r="E60" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G60" t="n">
-        <v>145.45</v>
+        <v>144.05</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2510,10 +2510,10 @@
         <v>146</v>
       </c>
       <c r="F61" t="n">
-        <v>2.8788</v>
+        <v>1</v>
       </c>
       <c r="G61" t="n">
-        <v>145.55</v>
+        <v>144.2166666666667</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C62" t="n">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D62" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E62" t="n">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F62" t="n">
-        <v>22159.8722</v>
+        <v>2.8788</v>
       </c>
       <c r="G62" t="n">
-        <v>145.6</v>
+        <v>144.35</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C63" t="n">
         <v>144</v>
       </c>
       <c r="D63" t="n">
+        <v>145</v>
+      </c>
+      <c r="E63" t="n">
         <v>144</v>
       </c>
-      <c r="E63" t="n">
-        <v>143</v>
-      </c>
       <c r="F63" t="n">
-        <v>11247.2066</v>
+        <v>22159.8722</v>
       </c>
       <c r="G63" t="n">
-        <v>145.55</v>
+        <v>144.4333333333333</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
+        <v>143</v>
+      </c>
+      <c r="C64" t="n">
         <v>144</v>
-      </c>
-      <c r="C64" t="n">
-        <v>143</v>
       </c>
       <c r="D64" t="n">
         <v>144</v>
@@ -2615,10 +2615,10 @@
         <v>143</v>
       </c>
       <c r="F64" t="n">
-        <v>20515.4292</v>
+        <v>11247.2066</v>
       </c>
       <c r="G64" t="n">
-        <v>145.55</v>
+        <v>144.5166666666667</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C65" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D65" t="n">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E65" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F65" t="n">
-        <v>10167.753</v>
+        <v>20515.4292</v>
       </c>
       <c r="G65" t="n">
-        <v>145.45</v>
+        <v>144.5833333333333</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2676,19 +2676,19 @@
         <v>142</v>
       </c>
       <c r="C66" t="n">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D66" t="n">
         <v>142</v>
       </c>
       <c r="E66" t="n">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F66" t="n">
-        <v>22079.0191</v>
+        <v>10167.753</v>
       </c>
       <c r="G66" t="n">
-        <v>145.35</v>
+        <v>144.6</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C67" t="n">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D67" t="n">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E67" t="n">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F67" t="n">
-        <v>1</v>
+        <v>22079.0191</v>
       </c>
       <c r="G67" t="n">
-        <v>145.3</v>
+        <v>144.5666666666667</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C68" t="n">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D68" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E68" t="n">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F68" t="n">
-        <v>556.4804</v>
+        <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>145.15</v>
+        <v>144.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C69" t="n">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D69" t="n">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E69" t="n">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F69" t="n">
-        <v>17874.07305652174</v>
+        <v>556.4804</v>
       </c>
       <c r="G69" t="n">
-        <v>144.9</v>
+        <v>144.5666666666667</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C70" t="n">
         <v>137</v>
       </c>
       <c r="D70" t="n">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E70" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F70" t="n">
-        <v>3963.2415</v>
+        <v>17874.07305652174</v>
       </c>
       <c r="G70" t="n">
-        <v>144.5</v>
+        <v>144.45</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2857,13 +2857,13 @@
         <v>137</v>
       </c>
       <c r="E71" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F71" t="n">
-        <v>1104.5952</v>
+        <v>3963.2415</v>
       </c>
       <c r="G71" t="n">
-        <v>144.05</v>
+        <v>144.3333333333333</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2892,13 +2892,13 @@
         <v>137</v>
       </c>
       <c r="E72" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F72" t="n">
-        <v>1802.6714</v>
+        <v>1104.5952</v>
       </c>
       <c r="G72" t="n">
-        <v>143.55</v>
+        <v>144.2166666666667</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2921,19 +2921,19 @@
         <v>137</v>
       </c>
       <c r="C73" t="n">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D73" t="n">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E73" t="n">
         <v>137</v>
       </c>
       <c r="F73" t="n">
-        <v>1424.6587</v>
+        <v>1802.6714</v>
       </c>
       <c r="G73" t="n">
-        <v>143</v>
+        <v>144.0833333333333</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2956,19 +2956,19 @@
         <v>137</v>
       </c>
       <c r="C74" t="n">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D74" t="n">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E74" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F74" t="n">
-        <v>11764.9929</v>
+        <v>1424.6587</v>
       </c>
       <c r="G74" t="n">
-        <v>142.45</v>
+        <v>144</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2991,19 +2991,19 @@
         <v>137</v>
       </c>
       <c r="C75" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D75" t="n">
         <v>137</v>
       </c>
       <c r="E75" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F75" t="n">
-        <v>838.5034000000001</v>
+        <v>11764.9929</v>
       </c>
       <c r="G75" t="n">
-        <v>141.95</v>
+        <v>143.85</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3026,19 +3026,19 @@
         <v>137</v>
       </c>
       <c r="C76" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D76" t="n">
         <v>137</v>
       </c>
       <c r="E76" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F76" t="n">
-        <v>4063.5741</v>
+        <v>838.5034000000001</v>
       </c>
       <c r="G76" t="n">
-        <v>141.45</v>
+        <v>143.75</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3061,19 +3061,19 @@
         <v>137</v>
       </c>
       <c r="C77" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D77" t="n">
         <v>137</v>
       </c>
       <c r="E77" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F77" t="n">
-        <v>1733.576</v>
+        <v>4063.5741</v>
       </c>
       <c r="G77" t="n">
-        <v>141</v>
+        <v>143.6333333333333</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3105,10 +3105,10 @@
         <v>137</v>
       </c>
       <c r="F78" t="n">
-        <v>501.7287</v>
+        <v>1733.576</v>
       </c>
       <c r="G78" t="n">
-        <v>140.6</v>
+        <v>143.5333333333333</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C79" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D79" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E79" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F79" t="n">
-        <v>190.1212</v>
+        <v>501.7287</v>
       </c>
       <c r="G79" t="n">
-        <v>140.25</v>
+        <v>143.4333333333333</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3175,10 +3175,10 @@
         <v>138</v>
       </c>
       <c r="F80" t="n">
-        <v>100</v>
+        <v>190.1212</v>
       </c>
       <c r="G80" t="n">
-        <v>139.85</v>
+        <v>143.3333333333333</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C81" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D81" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E81" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F81" t="n">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="G81" t="n">
-        <v>139.5</v>
+        <v>143.2333333333333</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3245,10 +3245,10 @@
         <v>139</v>
       </c>
       <c r="F82" t="n">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="G82" t="n">
-        <v>139.2</v>
+        <v>143.1833333333333</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3280,10 +3280,10 @@
         <v>139</v>
       </c>
       <c r="F83" t="n">
-        <v>116.8798</v>
+        <v>66</v>
       </c>
       <c r="G83" t="n">
-        <v>139</v>
+        <v>143.1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C84" t="n">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D84" t="n">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E84" t="n">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F84" t="n">
-        <v>1</v>
+        <v>116.8798</v>
       </c>
       <c r="G84" t="n">
-        <v>138.8</v>
+        <v>143.0166666666667</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C85" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D85" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E85" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F85" t="n">
-        <v>6647.7826</v>
+        <v>1</v>
       </c>
       <c r="G85" t="n">
-        <v>138.6</v>
+        <v>142.9333333333333</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3385,10 +3385,10 @@
         <v>138</v>
       </c>
       <c r="F86" t="n">
-        <v>104</v>
+        <v>6647.7826</v>
       </c>
       <c r="G86" t="n">
-        <v>138.4</v>
+        <v>142.8333333333333</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3420,10 +3420,10 @@
         <v>138</v>
       </c>
       <c r="F87" t="n">
-        <v>452.0869</v>
+        <v>104</v>
       </c>
       <c r="G87" t="n">
-        <v>138.1</v>
+        <v>142.7333333333333</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C88" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D88" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E88" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F88" t="n">
-        <v>750.5298</v>
+        <v>452.0869</v>
       </c>
       <c r="G88" t="n">
-        <v>137.85</v>
+        <v>142.6333333333333</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C89" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D89" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E89" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F89" t="n">
-        <v>32.0765</v>
+        <v>750.5298</v>
       </c>
       <c r="G89" t="n">
-        <v>137.75</v>
+        <v>142.5</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3525,10 +3525,10 @@
         <v>138</v>
       </c>
       <c r="F90" t="n">
-        <v>99</v>
+        <v>32.0765</v>
       </c>
       <c r="G90" t="n">
-        <v>137.8</v>
+        <v>142.3666666666667</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,22 +3548,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C91" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D91" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E91" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F91" t="n">
-        <v>8495.981</v>
+        <v>99</v>
       </c>
       <c r="G91" t="n">
-        <v>137.8</v>
+        <v>142.2333333333333</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3595,10 +3595,10 @@
         <v>137</v>
       </c>
       <c r="F92" t="n">
-        <v>66</v>
+        <v>8495.981</v>
       </c>
       <c r="G92" t="n">
-        <v>137.8</v>
+        <v>142.1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3633,7 +3633,7 @@
         <v>66</v>
       </c>
       <c r="G93" t="n">
-        <v>137.8</v>
+        <v>141.9666666666667</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3665,10 +3665,10 @@
         <v>137</v>
       </c>
       <c r="F94" t="n">
-        <v>5137.9927</v>
+        <v>66</v>
       </c>
       <c r="G94" t="n">
-        <v>137.8</v>
+        <v>141.8333333333333</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,22 +3688,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C95" t="n">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D95" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E95" t="n">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F95" t="n">
-        <v>22020.2404</v>
+        <v>5137.9927</v>
       </c>
       <c r="G95" t="n">
-        <v>137.75</v>
+        <v>141.7166666666667</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C96" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D96" t="n">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E96" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F96" t="n">
-        <v>7287.8333</v>
+        <v>22020.2404</v>
       </c>
       <c r="G96" t="n">
-        <v>137.6</v>
+        <v>141.55</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,22 +3758,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C97" t="n">
         <v>133</v>
       </c>
       <c r="D97" t="n">
+        <v>134</v>
+      </c>
+      <c r="E97" t="n">
         <v>133</v>
       </c>
-      <c r="E97" t="n">
-        <v>132</v>
-      </c>
       <c r="F97" t="n">
-        <v>5385.0703</v>
+        <v>7287.8333</v>
       </c>
       <c r="G97" t="n">
-        <v>137.35</v>
+        <v>141.35</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C98" t="n">
         <v>133</v>
@@ -3802,13 +3802,13 @@
         <v>133</v>
       </c>
       <c r="E98" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F98" t="n">
-        <v>430.7937</v>
+        <v>5385.0703</v>
       </c>
       <c r="G98" t="n">
-        <v>137.15</v>
+        <v>141.1666666666667</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3840,10 +3840,10 @@
         <v>133</v>
       </c>
       <c r="F99" t="n">
-        <v>552.9654</v>
+        <v>430.7937</v>
       </c>
       <c r="G99" t="n">
-        <v>136.9</v>
+        <v>140.9833333333333</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,22 +3863,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C100" t="n">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D100" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E100" t="n">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F100" t="n">
-        <v>20952.1571</v>
+        <v>552.9654</v>
       </c>
       <c r="G100" t="n">
-        <v>136.7</v>
+        <v>140.8166666666667</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C101" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D101" t="n">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E101" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F101" t="n">
-        <v>1926.2069</v>
+        <v>20952.1571</v>
       </c>
       <c r="G101" t="n">
-        <v>136.3</v>
+        <v>140.5833333333333</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3936,19 +3936,19 @@
         <v>131</v>
       </c>
       <c r="C102" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D102" t="n">
         <v>131</v>
       </c>
       <c r="E102" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F102" t="n">
-        <v>11483.5198</v>
+        <v>1926.2069</v>
       </c>
       <c r="G102" t="n">
-        <v>135.9</v>
+        <v>140.35</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,22 +3968,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C103" t="n">
         <v>130</v>
       </c>
       <c r="D103" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E103" t="n">
         <v>130</v>
       </c>
       <c r="F103" t="n">
-        <v>10926.2487</v>
+        <v>11483.5198</v>
       </c>
       <c r="G103" t="n">
-        <v>135.45</v>
+        <v>140.1166666666667</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4003,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C104" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D104" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E104" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F104" t="n">
-        <v>5780.2424</v>
+        <v>10926.2487</v>
       </c>
       <c r="G104" t="n">
-        <v>135.05</v>
+        <v>139.8833333333333</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,22 +4038,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C105" t="n">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D105" t="n">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E105" t="n">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F105" t="n">
-        <v>16420.1458</v>
+        <v>5780.2424</v>
       </c>
       <c r="G105" t="n">
-        <v>134.6</v>
+        <v>139.6833333333333</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,22 +4073,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C106" t="n">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="D106" t="n">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="E106" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F106" t="n">
-        <v>16221.22093404255</v>
+        <v>16420.1458</v>
       </c>
       <c r="G106" t="n">
-        <v>134.2</v>
+        <v>139.4166666666667</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,22 +4108,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C107" t="n">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="D107" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E107" t="n">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F107" t="n">
-        <v>2175.4696</v>
+        <v>16221.22093404255</v>
       </c>
       <c r="G107" t="n">
-        <v>134.3</v>
+        <v>139.3666666666667</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,22 +4143,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C108" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D108" t="n">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E108" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F108" t="n">
-        <v>479.3644</v>
+        <v>2175.4696</v>
       </c>
       <c r="G108" t="n">
-        <v>134.05</v>
+        <v>139.1666666666667</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4178,22 +4178,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C109" t="n">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D109" t="n">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E109" t="n">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F109" t="n">
-        <v>1</v>
+        <v>479.3644</v>
       </c>
       <c r="G109" t="n">
-        <v>133.95</v>
+        <v>138.9166666666667</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,22 +4213,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C110" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D110" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E110" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F110" t="n">
-        <v>799.9259</v>
+        <v>1</v>
       </c>
       <c r="G110" t="n">
-        <v>133.8</v>
+        <v>138.7666666666667</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,22 +4248,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C111" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D111" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E111" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F111" t="n">
-        <v>1038.0722</v>
+        <v>799.9259</v>
       </c>
       <c r="G111" t="n">
-        <v>133.6</v>
+        <v>138.5833333333333</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4295,10 +4295,10 @@
         <v>133</v>
       </c>
       <c r="F112" t="n">
-        <v>9.292199999999999</v>
+        <v>1038.0722</v>
       </c>
       <c r="G112" t="n">
-        <v>133.4</v>
+        <v>138.35</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,22 +4318,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C113" t="n">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D113" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E113" t="n">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F113" t="n">
-        <v>28274.4987</v>
+        <v>9.292199999999999</v>
       </c>
       <c r="G113" t="n">
-        <v>133.15</v>
+        <v>138.1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,22 +4353,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C114" t="n">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D114" t="n">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E114" t="n">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F114" t="n">
-        <v>90.08199999999999</v>
+        <v>28274.4987</v>
       </c>
       <c r="G114" t="n">
-        <v>133</v>
+        <v>137.8</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4388,22 +4388,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C115" t="n">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D115" t="n">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E115" t="n">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F115" t="n">
-        <v>2015.4217</v>
+        <v>90.08199999999999</v>
       </c>
       <c r="G115" t="n">
-        <v>132.8</v>
+        <v>137.5666666666667</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4423,22 +4423,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C116" t="n">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D116" t="n">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E116" t="n">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F116" t="n">
-        <v>1593.2261</v>
+        <v>2015.4217</v>
       </c>
       <c r="G116" t="n">
-        <v>132.8</v>
+        <v>137.3</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,22 +4458,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C117" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D117" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E117" t="n">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F117" t="n">
-        <v>1</v>
+        <v>1593.2261</v>
       </c>
       <c r="G117" t="n">
-        <v>133.05</v>
+        <v>137.1166666666667</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4505,10 +4505,10 @@
         <v>137</v>
       </c>
       <c r="F118" t="n">
-        <v>756.1386</v>
+        <v>1</v>
       </c>
       <c r="G118" t="n">
-        <v>133.25</v>
+        <v>136.9666666666667</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4528,22 +4528,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C119" t="n">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D119" t="n">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E119" t="n">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F119" t="n">
-        <v>128.7623</v>
+        <v>756.1386</v>
       </c>
       <c r="G119" t="n">
-        <v>133.35</v>
+        <v>136.8333333333333</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4575,10 +4575,10 @@
         <v>135</v>
       </c>
       <c r="F120" t="n">
-        <v>4208.371</v>
+        <v>128.7623</v>
       </c>
       <c r="G120" t="n">
-        <v>133.4</v>
+        <v>136.65</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4610,10 +4610,10 @@
         <v>135</v>
       </c>
       <c r="F121" t="n">
-        <v>666</v>
+        <v>4208.371</v>
       </c>
       <c r="G121" t="n">
-        <v>133.6</v>
+        <v>136.4666666666667</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4633,22 +4633,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C122" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D122" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E122" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F122" t="n">
-        <v>1580.7049</v>
+        <v>666</v>
       </c>
       <c r="G122" t="n">
-        <v>133.75</v>
+        <v>136.2833333333333</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4668,22 +4668,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
+        <v>134</v>
+      </c>
+      <c r="C123" t="n">
         <v>133</v>
       </c>
-      <c r="C123" t="n">
-        <v>132</v>
-      </c>
       <c r="D123" t="n">
+        <v>134</v>
+      </c>
+      <c r="E123" t="n">
         <v>133</v>
       </c>
-      <c r="E123" t="n">
-        <v>132</v>
-      </c>
       <c r="F123" t="n">
-        <v>18362.5953</v>
+        <v>1580.7049</v>
       </c>
       <c r="G123" t="n">
-        <v>133.9</v>
+        <v>136.1</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4706,19 +4706,19 @@
         <v>133</v>
       </c>
       <c r="C124" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D124" t="n">
         <v>133</v>
       </c>
       <c r="E124" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F124" t="n">
-        <v>448.1172</v>
+        <v>18362.5953</v>
       </c>
       <c r="G124" t="n">
-        <v>133.95</v>
+        <v>135.9</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4738,22 +4738,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C125" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D125" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E125" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F125" t="n">
-        <v>8711.088599999999</v>
+        <v>448.1172</v>
       </c>
       <c r="G125" t="n">
-        <v>134.1</v>
+        <v>135.7333333333333</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4773,22 +4773,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C126" t="n">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D126" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E126" t="n">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F126" t="n">
-        <v>32256.0727</v>
+        <v>8711.088599999999</v>
       </c>
       <c r="G126" t="n">
-        <v>134.15</v>
+        <v>135.5666666666667</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4811,19 +4811,19 @@
         <v>131</v>
       </c>
       <c r="C127" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D127" t="n">
         <v>131</v>
       </c>
       <c r="E127" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F127" t="n">
-        <v>1686.5342</v>
+        <v>32256.0727</v>
       </c>
       <c r="G127" t="n">
-        <v>133.7</v>
+        <v>135.4</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4843,22 +4843,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C128" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D128" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E128" t="n">
         <v>130</v>
       </c>
       <c r="F128" t="n">
-        <v>100.4943</v>
+        <v>1686.5342</v>
       </c>
       <c r="G128" t="n">
-        <v>133.6</v>
+        <v>135.1833333333333</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4878,22 +4878,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C129" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D129" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E129" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F129" t="n">
-        <v>1</v>
+        <v>100.4943</v>
       </c>
       <c r="G129" t="n">
-        <v>133.35</v>
+        <v>135</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4925,10 +4925,10 @@
         <v>131</v>
       </c>
       <c r="F130" t="n">
-        <v>2268.603</v>
+        <v>1</v>
       </c>
       <c r="G130" t="n">
-        <v>133.15</v>
+        <v>134.9</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4948,22 +4948,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C131" t="n">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D131" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E131" t="n">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F131" t="n">
-        <v>6390.8438</v>
+        <v>2268.603</v>
       </c>
       <c r="G131" t="n">
-        <v>133</v>
+        <v>134.8</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4986,19 +4986,19 @@
         <v>130</v>
       </c>
       <c r="C132" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D132" t="n">
         <v>130</v>
       </c>
       <c r="E132" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F132" t="n">
-        <v>1091.5769</v>
+        <v>6390.8438</v>
       </c>
       <c r="G132" t="n">
-        <v>132.85</v>
+        <v>134.6666666666667</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5030,10 +5030,10 @@
         <v>130</v>
       </c>
       <c r="F133" t="n">
-        <v>23.962</v>
+        <v>1091.5769</v>
       </c>
       <c r="G133" t="n">
-        <v>132.75</v>
+        <v>134.55</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5056,19 +5056,19 @@
         <v>130</v>
       </c>
       <c r="C134" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D134" t="n">
         <v>130</v>
       </c>
       <c r="E134" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F134" t="n">
-        <v>7301.2404</v>
+        <v>23.962</v>
       </c>
       <c r="G134" t="n">
-        <v>132.55</v>
+        <v>134.3833333333333</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5091,19 +5091,19 @@
         <v>130</v>
       </c>
       <c r="C135" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D135" t="n">
         <v>130</v>
       </c>
       <c r="E135" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F135" t="n">
-        <v>1</v>
+        <v>7301.2404</v>
       </c>
       <c r="G135" t="n">
-        <v>132.45</v>
+        <v>134.2666666666667</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5135,10 +5135,10 @@
         <v>130</v>
       </c>
       <c r="F136" t="n">
-        <v>1394.2997</v>
+        <v>1</v>
       </c>
       <c r="G136" t="n">
-        <v>132.25</v>
+        <v>134.15</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5170,10 +5170,10 @@
         <v>130</v>
       </c>
       <c r="F137" t="n">
-        <v>9626.9463</v>
+        <v>1394.2997</v>
       </c>
       <c r="G137" t="n">
-        <v>131.9</v>
+        <v>134.05</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5205,10 +5205,10 @@
         <v>130</v>
       </c>
       <c r="F138" t="n">
-        <v>57.8385</v>
+        <v>9626.9463</v>
       </c>
       <c r="G138" t="n">
-        <v>131.55</v>
+        <v>133.9333333333333</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5228,35 +5228,31 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C139" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D139" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E139" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F139" t="n">
-        <v>1</v>
+        <v>57.8385</v>
       </c>
       <c r="G139" t="n">
-        <v>131.35</v>
+        <v>133.8166666666667</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>130</v>
-      </c>
-      <c r="K139" t="n">
-        <v>130</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
@@ -5279,28 +5275,20 @@
         <v>131</v>
       </c>
       <c r="F140" t="n">
-        <v>2083.6582</v>
+        <v>1</v>
       </c>
       <c r="G140" t="n">
-        <v>131.15</v>
+        <v>133.7</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>131</v>
-      </c>
-      <c r="K140" t="n">
-        <v>130</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5310,40 +5298,32 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C141" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D141" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E141" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F141" t="n">
-        <v>1</v>
+        <v>2083.6582</v>
       </c>
       <c r="G141" t="n">
-        <v>131</v>
+        <v>133.5833333333333</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>131</v>
-      </c>
-      <c r="K141" t="n">
-        <v>130</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5353,22 +5333,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C142" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D142" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E142" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F142" t="n">
-        <v>20055.0528</v>
+        <v>1</v>
       </c>
       <c r="G142" t="n">
-        <v>130.85</v>
+        <v>133.4666666666667</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5388,22 +5368,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C143" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D143" t="n">
+        <v>131</v>
+      </c>
+      <c r="E143" t="n">
         <v>130</v>
       </c>
-      <c r="E143" t="n">
-        <v>128</v>
-      </c>
       <c r="F143" t="n">
-        <v>14986.9854</v>
+        <v>20055.0528</v>
       </c>
       <c r="G143" t="n">
-        <v>130.65</v>
+        <v>133.3166666666667</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5423,22 +5403,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C144" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D144" t="n">
         <v>130</v>
       </c>
       <c r="E144" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F144" t="n">
-        <v>1</v>
+        <v>14986.9854</v>
       </c>
       <c r="G144" t="n">
-        <v>130.5</v>
+        <v>133.15</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5458,22 +5438,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C145" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D145" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E145" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F145" t="n">
-        <v>324.3778</v>
+        <v>1</v>
       </c>
       <c r="G145" t="n">
-        <v>130.35</v>
+        <v>132.9833333333333</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5505,10 +5485,10 @@
         <v>129</v>
       </c>
       <c r="F146" t="n">
-        <v>14190.3268</v>
+        <v>324.3778</v>
       </c>
       <c r="G146" t="n">
-        <v>130.25</v>
+        <v>132.8333333333333</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5528,22 +5508,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C147" t="n">
         <v>129</v>
       </c>
       <c r="D147" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E147" t="n">
         <v>129</v>
       </c>
       <c r="F147" t="n">
-        <v>1497.4745</v>
+        <v>14190.3268</v>
       </c>
       <c r="G147" t="n">
-        <v>130.2</v>
+        <v>132.6833333333333</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5563,22 +5543,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C148" t="n">
         <v>129</v>
       </c>
       <c r="D148" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E148" t="n">
         <v>129</v>
       </c>
       <c r="F148" t="n">
-        <v>599.1043</v>
+        <v>1497.4745</v>
       </c>
       <c r="G148" t="n">
-        <v>130.15</v>
+        <v>132.5333333333333</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5598,22 +5578,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C149" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D149" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E149" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F149" t="n">
-        <v>1643.6699</v>
+        <v>599.1043</v>
       </c>
       <c r="G149" t="n">
-        <v>130.1</v>
+        <v>132.4</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5645,10 +5625,10 @@
         <v>130</v>
       </c>
       <c r="F150" t="n">
-        <v>280.4262</v>
+        <v>1643.6699</v>
       </c>
       <c r="G150" t="n">
-        <v>130.05</v>
+        <v>132.2666666666667</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5668,22 +5648,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C151" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D151" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E151" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F151" t="n">
-        <v>6795.484</v>
+        <v>280.4262</v>
       </c>
       <c r="G151" t="n">
-        <v>130</v>
+        <v>132.1333333333333</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5706,19 +5686,19 @@
         <v>129</v>
       </c>
       <c r="C152" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D152" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E152" t="n">
         <v>129</v>
       </c>
       <c r="F152" t="n">
-        <v>6434.2255</v>
+        <v>6795.484</v>
       </c>
       <c r="G152" t="n">
-        <v>129.95</v>
+        <v>132</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5738,7 +5718,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C153" t="n">
         <v>130</v>
@@ -5747,13 +5727,13 @@
         <v>130</v>
       </c>
       <c r="E153" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F153" t="n">
-        <v>3439.3952</v>
+        <v>6434.2255</v>
       </c>
       <c r="G153" t="n">
-        <v>129.95</v>
+        <v>131.8833333333333</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5773,22 +5753,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C154" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D154" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E154" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F154" t="n">
-        <v>1785.8398</v>
+        <v>3439.3952</v>
       </c>
       <c r="G154" t="n">
-        <v>130</v>
+        <v>131.7666666666667</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5808,22 +5788,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C155" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D155" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E155" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F155" t="n">
-        <v>1</v>
+        <v>1785.8398</v>
       </c>
       <c r="G155" t="n">
-        <v>130.1</v>
+        <v>131.6666666666667</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5855,10 +5835,10 @@
         <v>132</v>
       </c>
       <c r="F156" t="n">
-        <v>3673.2727</v>
+        <v>1</v>
       </c>
       <c r="G156" t="n">
-        <v>130.2</v>
+        <v>131.6166666666667</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5878,7 +5858,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C157" t="n">
         <v>132</v>
@@ -5887,13 +5867,13 @@
         <v>132</v>
       </c>
       <c r="E157" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F157" t="n">
-        <v>8036.5905</v>
+        <v>3673.2727</v>
       </c>
       <c r="G157" t="n">
-        <v>130.25</v>
+        <v>131.6</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5913,7 +5893,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C158" t="n">
         <v>132</v>
@@ -5922,13 +5902,13 @@
         <v>132</v>
       </c>
       <c r="E158" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F158" t="n">
-        <v>415.6115</v>
+        <v>8036.5905</v>
       </c>
       <c r="G158" t="n">
-        <v>130.35</v>
+        <v>131.5833333333333</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5960,10 +5940,10 @@
         <v>132</v>
       </c>
       <c r="F159" t="n">
-        <v>935.126</v>
+        <v>415.6115</v>
       </c>
       <c r="G159" t="n">
-        <v>130.4</v>
+        <v>131.5666666666667</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5995,10 +5975,10 @@
         <v>132</v>
       </c>
       <c r="F160" t="n">
-        <v>693.4077</v>
+        <v>935.126</v>
       </c>
       <c r="G160" t="n">
-        <v>130.45</v>
+        <v>131.55</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6018,22 +5998,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C161" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D161" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E161" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F161" t="n">
-        <v>3071.9805</v>
+        <v>693.4077</v>
       </c>
       <c r="G161" t="n">
-        <v>130.4</v>
+        <v>131.5833333333333</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6065,10 +6045,10 @@
         <v>131</v>
       </c>
       <c r="F162" t="n">
-        <v>2000</v>
+        <v>3071.9805</v>
       </c>
       <c r="G162" t="n">
-        <v>130.4</v>
+        <v>131.5833333333333</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6100,10 +6080,10 @@
         <v>131</v>
       </c>
       <c r="F163" t="n">
-        <v>5592.785</v>
+        <v>2000</v>
       </c>
       <c r="G163" t="n">
-        <v>130.5</v>
+        <v>131.6</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6123,22 +6103,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C164" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D164" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E164" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F164" t="n">
-        <v>951.9334</v>
+        <v>5592.785</v>
       </c>
       <c r="G164" t="n">
-        <v>130.5</v>
+        <v>131.6166666666667</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6158,22 +6138,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C165" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D165" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E165" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F165" t="n">
-        <v>16</v>
+        <v>951.9334</v>
       </c>
       <c r="G165" t="n">
-        <v>130.65</v>
+        <v>131.5833333333333</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6193,22 +6173,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C166" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D166" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E166" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F166" t="n">
-        <v>10248.2876</v>
+        <v>16</v>
       </c>
       <c r="G166" t="n">
-        <v>130.7</v>
+        <v>131.65</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6240,10 +6220,10 @@
         <v>130</v>
       </c>
       <c r="F167" t="n">
-        <v>1729.3208</v>
+        <v>10248.2876</v>
       </c>
       <c r="G167" t="n">
-        <v>130.7</v>
+        <v>131.4666666666667</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6275,10 +6255,10 @@
         <v>130</v>
       </c>
       <c r="F168" t="n">
-        <v>13237.4137</v>
+        <v>1729.3208</v>
       </c>
       <c r="G168" t="n">
-        <v>130.75</v>
+        <v>131.4166666666667</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6310,10 +6290,10 @@
         <v>130</v>
       </c>
       <c r="F169" t="n">
-        <v>4345.9093</v>
+        <v>13237.4137</v>
       </c>
       <c r="G169" t="n">
-        <v>130.75</v>
+        <v>131.4</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6345,10 +6325,10 @@
         <v>130</v>
       </c>
       <c r="F170" t="n">
-        <v>4977.8356</v>
+        <v>4345.9093</v>
       </c>
       <c r="G170" t="n">
-        <v>130.75</v>
+        <v>131.3</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6371,19 +6351,19 @@
         <v>130</v>
       </c>
       <c r="C171" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D171" t="n">
         <v>130</v>
       </c>
       <c r="E171" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F171" t="n">
-        <v>10633.5703</v>
+        <v>4977.8356</v>
       </c>
       <c r="G171" t="n">
-        <v>130.8</v>
+        <v>131.2166666666667</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6406,19 +6386,19 @@
         <v>130</v>
       </c>
       <c r="C172" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D172" t="n">
         <v>130</v>
       </c>
       <c r="E172" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F172" t="n">
-        <v>10000</v>
+        <v>10633.5703</v>
       </c>
       <c r="G172" t="n">
-        <v>130.85</v>
+        <v>131.15</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6450,10 +6430,10 @@
         <v>130</v>
       </c>
       <c r="F173" t="n">
-        <v>1798.7066</v>
+        <v>10000</v>
       </c>
       <c r="G173" t="n">
-        <v>130.85</v>
+        <v>131.1</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6473,22 +6453,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C174" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D174" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E174" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F174" t="n">
-        <v>424.3042</v>
+        <v>1798.7066</v>
       </c>
       <c r="G174" t="n">
-        <v>130.9</v>
+        <v>131.1</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6511,19 +6491,19 @@
         <v>132</v>
       </c>
       <c r="C175" t="n">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D175" t="n">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E175" t="n">
         <v>132</v>
       </c>
       <c r="F175" t="n">
-        <v>11217.1506</v>
+        <v>424.3042</v>
       </c>
       <c r="G175" t="n">
-        <v>130.9</v>
+        <v>131.0666666666667</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6543,22 +6523,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C176" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D176" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E176" t="n">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F176" t="n">
-        <v>1554.4494</v>
+        <v>11217.1506</v>
       </c>
       <c r="G176" t="n">
-        <v>131.05</v>
+        <v>131.1333333333333</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6590,10 +6570,10 @@
         <v>135</v>
       </c>
       <c r="F177" t="n">
-        <v>37350.3817</v>
+        <v>1554.4494</v>
       </c>
       <c r="G177" t="n">
-        <v>131.25</v>
+        <v>131.1166666666667</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6613,22 +6593,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C178" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D178" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E178" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F178" t="n">
-        <v>11019.0232</v>
+        <v>37350.3817</v>
       </c>
       <c r="G178" t="n">
-        <v>131.45</v>
+        <v>131.0833333333333</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6648,22 +6628,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C179" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D179" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E179" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F179" t="n">
-        <v>8256.828299999999</v>
+        <v>11019.0232</v>
       </c>
       <c r="G179" t="n">
-        <v>131.7</v>
+        <v>131.0666666666667</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6695,10 +6675,10 @@
         <v>137</v>
       </c>
       <c r="F180" t="n">
-        <v>6820.7975</v>
+        <v>8256.828299999999</v>
       </c>
       <c r="G180" t="n">
-        <v>131.95</v>
+        <v>131.1</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6718,22 +6698,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C181" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D181" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E181" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F181" t="n">
-        <v>2619.8115</v>
+        <v>6820.7975</v>
       </c>
       <c r="G181" t="n">
-        <v>132.3</v>
+        <v>131.1333333333333</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6765,10 +6745,10 @@
         <v>138</v>
       </c>
       <c r="F182" t="n">
-        <v>655.9512999999999</v>
+        <v>2619.8115</v>
       </c>
       <c r="G182" t="n">
-        <v>132.65</v>
+        <v>131.1833333333333</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6800,10 +6780,10 @@
         <v>138</v>
       </c>
       <c r="F183" t="n">
-        <v>5001</v>
+        <v>655.9512999999999</v>
       </c>
       <c r="G183" t="n">
-        <v>133</v>
+        <v>131.2666666666667</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6835,10 +6815,10 @@
         <v>138</v>
       </c>
       <c r="F184" t="n">
-        <v>10020.4847</v>
+        <v>5001</v>
       </c>
       <c r="G184" t="n">
-        <v>133.4</v>
+        <v>131.3666666666667</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6861,19 +6841,19 @@
         <v>138</v>
       </c>
       <c r="C185" t="n">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D185" t="n">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E185" t="n">
         <v>138</v>
       </c>
       <c r="F185" t="n">
-        <v>82205.68610000001</v>
+        <v>10020.4847</v>
       </c>
       <c r="G185" t="n">
-        <v>133.7</v>
+        <v>131.45</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6893,22 +6873,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
+        <v>138</v>
+      </c>
+      <c r="C186" t="n">
         <v>141</v>
-      </c>
-      <c r="C186" t="n">
-        <v>140</v>
       </c>
       <c r="D186" t="n">
         <v>144</v>
       </c>
       <c r="E186" t="n">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F186" t="n">
-        <v>46889.5018</v>
+        <v>82205.68610000001</v>
       </c>
       <c r="G186" t="n">
-        <v>134.25</v>
+        <v>131.6</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6928,10 +6908,10 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C187" t="n">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D187" t="n">
         <v>144</v>
@@ -6940,10 +6920,10 @@
         <v>140</v>
       </c>
       <c r="F187" t="n">
-        <v>153744.1433</v>
+        <v>46889.5018</v>
       </c>
       <c r="G187" t="n">
-        <v>134.85</v>
+        <v>131.7833333333333</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6963,28 +6943,28 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C188" t="n">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D188" t="n">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E188" t="n">
         <v>140</v>
       </c>
       <c r="F188" t="n">
-        <v>4411.9628</v>
+        <v>153744.1433</v>
       </c>
       <c r="G188" t="n">
-        <v>135.35</v>
+        <v>132</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
       </c>
       <c r="I188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
@@ -6998,28 +6978,28 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C189" t="n">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D189" t="n">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E189" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F189" t="n">
-        <v>119748.1607</v>
+        <v>4411.9628</v>
       </c>
       <c r="G189" t="n">
-        <v>135.9</v>
+        <v>132.1666666666667</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
       </c>
       <c r="I189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
@@ -7033,22 +7013,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C190" t="n">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D190" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E190" t="n">
         <v>141</v>
       </c>
       <c r="F190" t="n">
-        <v>940.6972</v>
+        <v>119748.1607</v>
       </c>
       <c r="G190" t="n">
-        <v>136.55</v>
+        <v>132.3833333333333</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7068,10 +7048,10 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
+        <v>143</v>
+      </c>
+      <c r="C191" t="n">
         <v>141</v>
-      </c>
-      <c r="C191" t="n">
-        <v>143</v>
       </c>
       <c r="D191" t="n">
         <v>143</v>
@@ -7080,10 +7060,10 @@
         <v>141</v>
       </c>
       <c r="F191" t="n">
-        <v>70760.11302307692</v>
+        <v>940.6972</v>
       </c>
       <c r="G191" t="n">
-        <v>137.1</v>
+        <v>132.55</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7103,22 +7083,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C192" t="n">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D192" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E192" t="n">
         <v>141</v>
       </c>
       <c r="F192" t="n">
-        <v>21385.06</v>
+        <v>70760.11302307692</v>
       </c>
       <c r="G192" t="n">
-        <v>137.7</v>
+        <v>132.7833333333333</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7138,22 +7118,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C193" t="n">
         <v>141</v>
       </c>
       <c r="D193" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E193" t="n">
         <v>141</v>
       </c>
       <c r="F193" t="n">
-        <v>1577.9078</v>
+        <v>21385.06</v>
       </c>
       <c r="G193" t="n">
-        <v>138.25</v>
+        <v>132.9666666666667</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7173,22 +7153,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C194" t="n">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D194" t="n">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E194" t="n">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F194" t="n">
-        <v>3696.187</v>
+        <v>1577.9078</v>
       </c>
       <c r="G194" t="n">
-        <v>138.6</v>
+        <v>133.15</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7208,22 +7188,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C195" t="n">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D195" t="n">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E195" t="n">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F195" t="n">
-        <v>128.3598</v>
+        <v>3696.187</v>
       </c>
       <c r="G195" t="n">
-        <v>138.85</v>
+        <v>133.3166666666667</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7246,19 +7226,19 @@
         <v>137</v>
       </c>
       <c r="C196" t="n">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D196" t="n">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E196" t="n">
         <v>137</v>
       </c>
       <c r="F196" t="n">
-        <v>10612.98992056738</v>
+        <v>128.3598</v>
       </c>
       <c r="G196" t="n">
-        <v>138.95</v>
+        <v>133.4333333333333</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7278,7 +7258,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C197" t="n">
         <v>141</v>
@@ -7287,13 +7267,13 @@
         <v>141</v>
       </c>
       <c r="E197" t="n">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F197" t="n">
-        <v>6087.3757</v>
+        <v>10612.98992056738</v>
       </c>
       <c r="G197" t="n">
-        <v>139.2</v>
+        <v>133.6166666666667</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7313,22 +7293,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C198" t="n">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D198" t="n">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E198" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F198" t="n">
-        <v>127.0102</v>
+        <v>6087.3757</v>
       </c>
       <c r="G198" t="n">
-        <v>139.35</v>
+        <v>133.8</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7348,22 +7328,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C199" t="n">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D199" t="n">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E199" t="n">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F199" t="n">
-        <v>14461.8539</v>
+        <v>127.0102</v>
       </c>
       <c r="G199" t="n">
-        <v>139.35</v>
+        <v>133.95</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7383,22 +7363,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C200" t="n">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D200" t="n">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E200" t="n">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F200" t="n">
-        <v>794.0416</v>
+        <v>14461.8539</v>
       </c>
       <c r="G200" t="n">
-        <v>139.2</v>
+        <v>134.05</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7418,10 +7398,10 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C201" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D201" t="n">
         <v>135</v>
@@ -7430,10 +7410,10 @@
         <v>134</v>
       </c>
       <c r="F201" t="n">
-        <v>748.6017000000001</v>
+        <v>794.0416</v>
       </c>
       <c r="G201" t="n">
-        <v>139.05</v>
+        <v>134.1166666666667</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7453,22 +7433,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C202" t="n">
         <v>134</v>
       </c>
       <c r="D202" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E202" t="n">
         <v>134</v>
       </c>
       <c r="F202" t="n">
-        <v>122.0093</v>
+        <v>748.6017000000001</v>
       </c>
       <c r="G202" t="n">
-        <v>138.85</v>
+        <v>134.15</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7500,10 +7480,10 @@
         <v>134</v>
       </c>
       <c r="F203" t="n">
-        <v>1983.2613</v>
+        <v>122.0093</v>
       </c>
       <c r="G203" t="n">
-        <v>138.65</v>
+        <v>134.2166666666667</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7523,22 +7503,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C204" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D204" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E204" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F204" t="n">
-        <v>9396.198899999999</v>
+        <v>1983.2613</v>
       </c>
       <c r="G204" t="n">
-        <v>138.4</v>
+        <v>134.3</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7558,22 +7538,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C205" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D205" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E205" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F205" t="n">
-        <v>4929.9209</v>
+        <v>9396.198899999999</v>
       </c>
       <c r="G205" t="n">
-        <v>138.2</v>
+        <v>134.35</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7593,22 +7573,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C206" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D206" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E206" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F206" t="n">
-        <v>74.075</v>
+        <v>4929.9209</v>
       </c>
       <c r="G206" t="n">
-        <v>137.9</v>
+        <v>134.4333333333333</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7628,22 +7608,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C207" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D207" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E207" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F207" t="n">
-        <v>12664.1979</v>
+        <v>74.075</v>
       </c>
       <c r="G207" t="n">
-        <v>137.5</v>
+        <v>134.5333333333333</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7663,22 +7643,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C208" t="n">
         <v>133</v>
       </c>
       <c r="D208" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E208" t="n">
         <v>133</v>
       </c>
       <c r="F208" t="n">
-        <v>8758.5764</v>
+        <v>12664.1979</v>
       </c>
       <c r="G208" t="n">
-        <v>137.15</v>
+        <v>134.6</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7698,22 +7678,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C209" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D209" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E209" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F209" t="n">
-        <v>2474.0183</v>
+        <v>8758.5764</v>
       </c>
       <c r="G209" t="n">
-        <v>136.8</v>
+        <v>134.6666666666667</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7745,10 +7725,10 @@
         <v>134</v>
       </c>
       <c r="F210" t="n">
-        <v>9804.183499999999</v>
+        <v>2474.0183</v>
       </c>
       <c r="G210" t="n">
-        <v>136.35</v>
+        <v>134.7333333333333</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7780,10 +7760,10 @@
         <v>134</v>
       </c>
       <c r="F211" t="n">
-        <v>4137.1694</v>
+        <v>9804.183499999999</v>
       </c>
       <c r="G211" t="n">
-        <v>136</v>
+        <v>134.8</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7815,19 +7795,23 @@
         <v>134</v>
       </c>
       <c r="F212" t="n">
-        <v>1720.3107</v>
+        <v>4137.1694</v>
       </c>
       <c r="G212" t="n">
-        <v>135.6</v>
+        <v>134.8833333333333</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>134</v>
+      </c>
+      <c r="K212" t="n">
+        <v>134</v>
+      </c>
       <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
         <v>1</v>
@@ -7850,10 +7834,10 @@
         <v>134</v>
       </c>
       <c r="F213" t="n">
-        <v>10586.4574</v>
+        <v>1720.3107</v>
       </c>
       <c r="G213" t="n">
-        <v>135.25</v>
+        <v>134.95</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -7862,8 +7846,14 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>134</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -7876,19 +7866,19 @@
         <v>134</v>
       </c>
       <c r="C214" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D214" t="n">
         <v>134</v>
       </c>
       <c r="E214" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F214" t="n">
-        <v>4929.9209</v>
+        <v>10586.4574</v>
       </c>
       <c r="G214" t="n">
-        <v>135</v>
+        <v>135.0166666666667</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -7897,8 +7887,14 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>134</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -7911,19 +7907,19 @@
         <v>134</v>
       </c>
       <c r="C215" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D215" t="n">
         <v>134</v>
       </c>
       <c r="E215" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F215" t="n">
-        <v>1415.0305</v>
+        <v>4929.9209</v>
       </c>
       <c r="G215" t="n">
-        <v>134.85</v>
+        <v>135.05</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -7955,19 +7951,23 @@
         <v>134</v>
       </c>
       <c r="F216" t="n">
-        <v>3295.6044</v>
+        <v>1415.0305</v>
       </c>
       <c r="G216" t="n">
-        <v>134.7</v>
+        <v>135.0833333333333</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>133</v>
+      </c>
+      <c r="K216" t="n">
+        <v>133</v>
+      </c>
       <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
         <v>1</v>
@@ -7978,22 +7978,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C217" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D217" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E217" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F217" t="n">
-        <v>1</v>
+        <v>3295.6044</v>
       </c>
       <c r="G217" t="n">
-        <v>134.45</v>
+        <v>135.1166666666667</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8002,8 +8002,14 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>133</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8025,10 +8031,10 @@
         <v>135</v>
       </c>
       <c r="F218" t="n">
-        <v>8607.2518</v>
+        <v>1</v>
       </c>
       <c r="G218" t="n">
-        <v>134.25</v>
+        <v>135.1666666666667</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8037,8 +8043,14 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>133</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8051,28 +8063,32 @@
         <v>135</v>
       </c>
       <c r="C219" t="n">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D219" t="n">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E219" t="n">
         <v>135</v>
       </c>
       <c r="F219" t="n">
-        <v>14634.67768417266</v>
+        <v>8607.2518</v>
       </c>
       <c r="G219" t="n">
-        <v>134.15</v>
+        <v>135.2166666666667</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>135</v>
+      </c>
+      <c r="K219" t="n">
+        <v>135</v>
+      </c>
       <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
         <v>1</v>
@@ -8083,22 +8099,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C220" t="n">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D220" t="n">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E220" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F220" t="n">
-        <v>1034.093</v>
+        <v>14634.67768417266</v>
       </c>
       <c r="G220" t="n">
-        <v>134.3</v>
+        <v>135.3333333333333</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8107,8 +8123,14 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>135</v>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8121,19 +8143,19 @@
         <v>137</v>
       </c>
       <c r="C221" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D221" t="n">
         <v>137</v>
       </c>
       <c r="E221" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F221" t="n">
-        <v>315.5293</v>
+        <v>1034.093</v>
       </c>
       <c r="G221" t="n">
-        <v>134.4</v>
+        <v>135.4</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8142,8 +8164,14 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>135</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8153,22 +8181,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C222" t="n">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D222" t="n">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E222" t="n">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F222" t="n">
-        <v>212.5163</v>
+        <v>315.5293</v>
       </c>
       <c r="G222" t="n">
-        <v>134.4</v>
+        <v>135.5</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8177,8 +8205,14 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>135</v>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8200,10 +8234,10 @@
         <v>134</v>
       </c>
       <c r="F223" t="n">
-        <v>56.582</v>
+        <v>212.5163</v>
       </c>
       <c r="G223" t="n">
-        <v>134.4</v>
+        <v>135.55</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8212,8 +8246,14 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>135</v>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8235,10 +8275,10 @@
         <v>134</v>
       </c>
       <c r="F224" t="n">
-        <v>1308.9656</v>
+        <v>56.582</v>
       </c>
       <c r="G224" t="n">
-        <v>134.45</v>
+        <v>135.6</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8247,8 +8287,14 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>135</v>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8273,7 +8319,7 @@
         <v>1308.9656</v>
       </c>
       <c r="G225" t="n">
-        <v>134.45</v>
+        <v>135.6666666666667</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8282,8 +8328,14 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>135</v>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8296,19 +8348,19 @@
         <v>134</v>
       </c>
       <c r="C226" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D226" t="n">
         <v>134</v>
       </c>
       <c r="E226" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F226" t="n">
-        <v>16168.4961</v>
+        <v>1308.9656</v>
       </c>
       <c r="G226" t="n">
-        <v>134.4</v>
+        <v>135.7</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8317,8 +8369,14 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>135</v>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8331,19 +8389,19 @@
         <v>134</v>
       </c>
       <c r="C227" t="n">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D227" t="n">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E227" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F227" t="n">
-        <v>11</v>
+        <v>16168.4961</v>
       </c>
       <c r="G227" t="n">
-        <v>134.4</v>
+        <v>135.75</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8352,8 +8410,14 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>135</v>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8366,19 +8430,19 @@
         <v>134</v>
       </c>
       <c r="C228" t="n">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D228" t="n">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E228" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F228" t="n">
-        <v>9802.9624</v>
+        <v>11</v>
       </c>
       <c r="G228" t="n">
-        <v>134.45</v>
+        <v>135.85</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8387,8 +8451,14 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>135</v>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -8398,22 +8468,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C229" t="n">
         <v>133</v>
       </c>
       <c r="D229" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E229" t="n">
         <v>133</v>
       </c>
       <c r="F229" t="n">
-        <v>555.4254</v>
+        <v>9802.9624</v>
       </c>
       <c r="G229" t="n">
-        <v>134.4</v>
+        <v>135.9</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8422,8 +8492,14 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>135</v>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8445,10 +8521,10 @@
         <v>133</v>
       </c>
       <c r="F230" t="n">
-        <v>9277.279399999999</v>
+        <v>555.4254</v>
       </c>
       <c r="G230" t="n">
-        <v>134.35</v>
+        <v>135.95</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8457,8 +8533,14 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>135</v>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -8468,23 +8550,23 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
+        <v>133</v>
+      </c>
+      <c r="C231" t="n">
+        <v>133</v>
+      </c>
+      <c r="D231" t="n">
+        <v>133</v>
+      </c>
+      <c r="E231" t="n">
+        <v>133</v>
+      </c>
+      <c r="F231" t="n">
+        <v>9277.279399999999</v>
+      </c>
+      <c r="G231" t="n">
         <v>136</v>
       </c>
-      <c r="C231" t="n">
-        <v>136</v>
-      </c>
-      <c r="D231" t="n">
-        <v>136</v>
-      </c>
-      <c r="E231" t="n">
-        <v>136</v>
-      </c>
-      <c r="F231" t="n">
-        <v>2</v>
-      </c>
-      <c r="G231" t="n">
-        <v>134.45</v>
-      </c>
       <c r="H231" t="n">
         <v>0</v>
       </c>
@@ -8492,8 +8574,14 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>135</v>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -8515,10 +8603,10 @@
         <v>136</v>
       </c>
       <c r="F232" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G232" t="n">
-        <v>134.55</v>
+        <v>136.1166666666667</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8527,8 +8615,14 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>135</v>
+      </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -8538,22 +8632,22 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C233" t="n">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D233" t="n">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E233" t="n">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F233" t="n">
-        <v>6072.1572</v>
+        <v>1</v>
       </c>
       <c r="G233" t="n">
-        <v>134.55</v>
+        <v>136.2166666666667</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8562,8 +8656,14 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>135</v>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -8573,22 +8673,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C234" t="n">
         <v>133</v>
       </c>
       <c r="D234" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E234" t="n">
         <v>133</v>
       </c>
       <c r="F234" t="n">
-        <v>940.3333</v>
+        <v>6072.1572</v>
       </c>
       <c r="G234" t="n">
-        <v>134.5</v>
+        <v>136.2666666666667</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8597,8 +8697,14 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>135</v>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -8620,10 +8726,10 @@
         <v>133</v>
       </c>
       <c r="F235" t="n">
-        <v>3686.9466</v>
+        <v>940.3333</v>
       </c>
       <c r="G235" t="n">
-        <v>134.45</v>
+        <v>136.2833333333333</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8632,8 +8738,14 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>135</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -8655,10 +8767,10 @@
         <v>133</v>
       </c>
       <c r="F236" t="n">
-        <v>618.6402</v>
+        <v>3686.9466</v>
       </c>
       <c r="G236" t="n">
-        <v>134.4</v>
+        <v>136.2333333333333</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -8667,8 +8779,14 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>135</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -8678,22 +8796,22 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C237" t="n">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D237" t="n">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E237" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F237" t="n">
-        <v>5167.8726</v>
+        <v>618.6402</v>
       </c>
       <c r="G237" t="n">
-        <v>134.4</v>
+        <v>136.2</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -8702,8 +8820,14 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>135</v>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -8716,19 +8840,19 @@
         <v>135</v>
       </c>
       <c r="C238" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D238" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E238" t="n">
         <v>135</v>
       </c>
       <c r="F238" t="n">
-        <v>77.7697</v>
+        <v>5167.8726</v>
       </c>
       <c r="G238" t="n">
-        <v>134.4</v>
+        <v>136.2166666666667</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -8737,8 +8861,14 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>135</v>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -8748,22 +8878,22 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C239" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D239" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E239" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F239" t="n">
         <v>77.7697</v>
       </c>
       <c r="G239" t="n">
-        <v>134.45</v>
+        <v>136.2</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -8772,8 +8902,14 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>135</v>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -8783,22 +8919,22 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C240" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D240" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E240" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F240" t="n">
-        <v>48.4897</v>
+        <v>77.7697</v>
       </c>
       <c r="G240" t="n">
-        <v>134.45</v>
+        <v>136.1833333333333</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -8807,8 +8943,14 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>135</v>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -8818,22 +8960,22 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C241" t="n">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D241" t="n">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E241" t="n">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F241" t="n">
-        <v>3665.5675</v>
+        <v>48.4897</v>
       </c>
       <c r="G241" t="n">
-        <v>134.35</v>
+        <v>136.1833333333333</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -8842,8 +8984,14 @@
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>135</v>
+      </c>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -8853,22 +9001,22 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C242" t="n">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D242" t="n">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E242" t="n">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F242" t="n">
-        <v>15843.232</v>
+        <v>3665.5675</v>
       </c>
       <c r="G242" t="n">
-        <v>134.5</v>
+        <v>136.1333333333333</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -8877,8 +9025,14 @@
         <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>135</v>
+      </c>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -8888,7 +9042,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C243" t="n">
         <v>139</v>
@@ -8897,13 +9051,13 @@
         <v>139</v>
       </c>
       <c r="E243" t="n">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F243" t="n">
-        <v>31226.9208</v>
+        <v>15843.232</v>
       </c>
       <c r="G243" t="n">
-        <v>134.75</v>
+        <v>136.15</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -8912,8 +9066,14 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>135</v>
+      </c>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -8935,10 +9095,10 @@
         <v>139</v>
       </c>
       <c r="F244" t="n">
-        <v>11337.5743</v>
+        <v>31226.9208</v>
       </c>
       <c r="G244" t="n">
-        <v>135</v>
+        <v>136.1666666666667</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -8947,8 +9107,14 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>135</v>
+      </c>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -8961,19 +9127,19 @@
         <v>139</v>
       </c>
       <c r="C245" t="n">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D245" t="n">
         <v>139</v>
       </c>
       <c r="E245" t="n">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F245" t="n">
-        <v>8838.3755</v>
+        <v>11337.5743</v>
       </c>
       <c r="G245" t="n">
-        <v>135.25</v>
+        <v>136.1833333333333</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -8982,8 +9148,14 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>135</v>
+      </c>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -8993,22 +9165,22 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C246" t="n">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D246" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E246" t="n">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F246" t="n">
-        <v>1</v>
+        <v>8838.3755</v>
       </c>
       <c r="G246" t="n">
-        <v>135.45</v>
+        <v>136.1</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9017,8 +9189,14 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>135</v>
+      </c>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9028,22 +9206,22 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C247" t="n">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D247" t="n">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E247" t="n">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F247" t="n">
-        <v>13481.0188</v>
+        <v>1</v>
       </c>
       <c r="G247" t="n">
-        <v>135.55</v>
+        <v>136.0666666666667</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9052,8 +9230,14 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>135</v>
+      </c>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9066,19 +9250,19 @@
         <v>136</v>
       </c>
       <c r="C248" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D248" t="n">
         <v>136</v>
       </c>
       <c r="E248" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F248" t="n">
-        <v>17667.8346</v>
+        <v>13481.0188</v>
       </c>
       <c r="G248" t="n">
-        <v>135.65</v>
+        <v>135.9333333333333</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9087,8 +9271,14 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>135</v>
+      </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9098,19 +9288,19 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C249" t="n">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D249" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E249" t="n">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F249" t="n">
-        <v>1</v>
+        <v>17667.8346</v>
       </c>
       <c r="G249" t="n">
         <v>135.85</v>
@@ -9122,8 +9312,14 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>135</v>
+      </c>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9139,16 +9335,16 @@
         <v>137</v>
       </c>
       <c r="D250" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E250" t="n">
         <v>137</v>
       </c>
       <c r="F250" t="n">
-        <v>2448.5766</v>
+        <v>1</v>
       </c>
       <c r="G250" t="n">
-        <v>136.05</v>
+        <v>135.7333333333333</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9157,8 +9353,14 @@
         <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>135</v>
+      </c>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9168,22 +9370,22 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C251" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D251" t="n">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E251" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F251" t="n">
-        <v>1</v>
+        <v>2448.5766</v>
       </c>
       <c r="G251" t="n">
-        <v>136.05</v>
+        <v>135.6666666666667</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9192,8 +9394,14 @@
         <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>135</v>
+      </c>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -9203,22 +9411,22 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C252" t="n">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D252" t="n">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E252" t="n">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F252" t="n">
-        <v>26517.7464</v>
+        <v>1</v>
       </c>
       <c r="G252" t="n">
-        <v>135.95</v>
+        <v>135.55</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9227,8 +9435,14 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>135</v>
+      </c>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -9241,19 +9455,19 @@
         <v>134</v>
       </c>
       <c r="C253" t="n">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D253" t="n">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E253" t="n">
         <v>133</v>
       </c>
       <c r="F253" t="n">
-        <v>2039.3839</v>
+        <v>26517.7464</v>
       </c>
       <c r="G253" t="n">
-        <v>135.95</v>
+        <v>135.4166666666667</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9262,8 +9476,14 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>135</v>
+      </c>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -9273,22 +9493,22 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C254" t="n">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D254" t="n">
         <v>136</v>
       </c>
       <c r="E254" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F254" t="n">
-        <v>3056.1581</v>
+        <v>2039.3839</v>
       </c>
       <c r="G254" t="n">
-        <v>136.05</v>
+        <v>135.3333333333333</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9297,8 +9517,14 @@
         <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>135</v>
+      </c>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -9308,22 +9534,22 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
+        <v>135</v>
+      </c>
+      <c r="C255" t="n">
         <v>132</v>
       </c>
-      <c r="C255" t="n">
-        <v>131</v>
-      </c>
       <c r="D255" t="n">
+        <v>136</v>
+      </c>
+      <c r="E255" t="n">
         <v>132</v>
       </c>
-      <c r="E255" t="n">
-        <v>131</v>
-      </c>
       <c r="F255" t="n">
-        <v>8597.1176</v>
+        <v>3056.1581</v>
       </c>
       <c r="G255" t="n">
-        <v>136</v>
+        <v>135.2166666666667</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9332,8 +9558,14 @@
         <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>135</v>
+      </c>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -9343,22 +9575,22 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C256" t="n">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D256" t="n">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E256" t="n">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F256" t="n">
-        <v>10</v>
+        <v>8597.1176</v>
       </c>
       <c r="G256" t="n">
-        <v>136.1</v>
+        <v>135.1166666666667</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9367,8 +9599,14 @@
         <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>135</v>
+      </c>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -9381,19 +9619,19 @@
         <v>135</v>
       </c>
       <c r="C257" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D257" t="n">
         <v>135</v>
       </c>
       <c r="E257" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F257" t="n">
-        <v>593.2255</v>
+        <v>10</v>
       </c>
       <c r="G257" t="n">
-        <v>136.1</v>
+        <v>135.0166666666667</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -9402,8 +9640,14 @@
         <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>135</v>
+      </c>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -9413,22 +9657,22 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C258" t="n">
         <v>133</v>
       </c>
       <c r="D258" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E258" t="n">
         <v>133</v>
       </c>
       <c r="F258" t="n">
-        <v>306.7745</v>
+        <v>593.2255</v>
       </c>
       <c r="G258" t="n">
-        <v>136</v>
+        <v>134.8833333333333</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -9437,8 +9681,14 @@
         <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>135</v>
+      </c>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -9448,22 +9698,22 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C259" t="n">
         <v>133</v>
       </c>
       <c r="D259" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E259" t="n">
         <v>133</v>
       </c>
       <c r="F259" t="n">
-        <v>26517.7465</v>
+        <v>306.7745</v>
       </c>
       <c r="G259" t="n">
-        <v>135.9</v>
+        <v>134.7833333333333</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -9472,8 +9722,14 @@
         <v>0</v>
       </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>135</v>
+      </c>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -9483,22 +9739,22 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C260" t="n">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D260" t="n">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E260" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F260" t="n">
-        <v>614.8907</v>
+        <v>26517.7465</v>
       </c>
       <c r="G260" t="n">
-        <v>135.8</v>
+        <v>134.7166666666667</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -9507,8 +9763,14 @@
         <v>0</v>
       </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>135</v>
+      </c>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -9521,19 +9783,19 @@
         <v>135</v>
       </c>
       <c r="C261" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D261" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E261" t="n">
         <v>135</v>
       </c>
       <c r="F261" t="n">
-        <v>0.1093</v>
+        <v>614.8907</v>
       </c>
       <c r="G261" t="n">
-        <v>135.8</v>
+        <v>134.7333333333333</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -9542,8 +9804,14 @@
         <v>0</v>
       </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>135</v>
+      </c>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -9553,22 +9821,22 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C262" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D262" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E262" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F262" t="n">
-        <v>2</v>
+        <v>0.1093</v>
       </c>
       <c r="G262" t="n">
-        <v>135.75</v>
+        <v>134.75</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -9577,8 +9845,14 @@
         <v>0</v>
       </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>135</v>
+      </c>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -9600,10 +9874,10 @@
         <v>136</v>
       </c>
       <c r="F263" t="n">
-        <v>403.4448</v>
+        <v>2</v>
       </c>
       <c r="G263" t="n">
-        <v>135.6</v>
+        <v>134.7833333333333</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -9612,8 +9886,14 @@
         <v>0</v>
       </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>135</v>
+      </c>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -9635,10 +9915,10 @@
         <v>136</v>
       </c>
       <c r="F264" t="n">
-        <v>1923.8484</v>
+        <v>403.4448</v>
       </c>
       <c r="G264" t="n">
-        <v>135.45</v>
+        <v>134.8166666666667</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -9647,8 +9927,14 @@
         <v>0</v>
       </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>135</v>
+      </c>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -9670,10 +9956,10 @@
         <v>136</v>
       </c>
       <c r="F265" t="n">
-        <v>76.1516</v>
+        <v>1923.8484</v>
       </c>
       <c r="G265" t="n">
-        <v>135.3</v>
+        <v>134.8666666666667</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -9682,8 +9968,14 @@
         <v>0</v>
       </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>135</v>
+      </c>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -9693,22 +9985,22 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C266" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D266" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E266" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F266" t="n">
-        <v>1</v>
+        <v>76.1516</v>
       </c>
       <c r="G266" t="n">
-        <v>135.25</v>
+        <v>134.9</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -9717,8 +10009,14 @@
         <v>0</v>
       </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>135</v>
+      </c>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -9740,10 +10038,10 @@
         <v>137</v>
       </c>
       <c r="F267" t="n">
-        <v>207.1386</v>
+        <v>1</v>
       </c>
       <c r="G267" t="n">
-        <v>135.3</v>
+        <v>134.9333333333333</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -9752,8 +10050,14 @@
         <v>0</v>
       </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>135</v>
+      </c>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -9775,10 +10079,10 @@
         <v>137</v>
       </c>
       <c r="F268" t="n">
-        <v>9692.3184</v>
+        <v>207.1386</v>
       </c>
       <c r="G268" t="n">
-        <v>135.35</v>
+        <v>135</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -9787,8 +10091,14 @@
         <v>0</v>
       </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>135</v>
+      </c>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -9810,10 +10120,10 @@
         <v>137</v>
       </c>
       <c r="F269" t="n">
-        <v>1995.6743</v>
+        <v>9692.3184</v>
       </c>
       <c r="G269" t="n">
-        <v>135.35</v>
+        <v>135.0666666666667</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -9822,8 +10132,14 @@
         <v>0</v>
       </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>135</v>
+      </c>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -9833,7 +10149,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C270" t="n">
         <v>137</v>
@@ -9842,13 +10158,13 @@
         <v>137</v>
       </c>
       <c r="E270" t="n">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F270" t="n">
-        <v>510.3471</v>
+        <v>1995.6743</v>
       </c>
       <c r="G270" t="n">
-        <v>135.25</v>
+        <v>135.1166666666667</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -9857,8 +10173,14 @@
         <v>0</v>
       </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>135</v>
+      </c>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -9868,7 +10190,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C271" t="n">
         <v>137</v>
@@ -9877,13 +10199,13 @@
         <v>137</v>
       </c>
       <c r="E271" t="n">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F271" t="n">
-        <v>729.92700729927</v>
+        <v>510.3471</v>
       </c>
       <c r="G271" t="n">
-        <v>135.3</v>
+        <v>135.1666666666667</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -9892,8 +10214,14 @@
         <v>0</v>
       </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>135</v>
+      </c>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -9903,22 +10231,22 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C272" t="n">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D272" t="n">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E272" t="n">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F272" t="n">
-        <v>1647.4081</v>
+        <v>729.92700729927</v>
       </c>
       <c r="G272" t="n">
-        <v>135.35</v>
+        <v>135.2166666666667</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -9927,8 +10255,14 @@
         <v>0</v>
       </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>135</v>
+      </c>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -9950,10 +10284,10 @@
         <v>135</v>
       </c>
       <c r="F273" t="n">
-        <v>500</v>
+        <v>1647.4081</v>
       </c>
       <c r="G273" t="n">
-        <v>135.4</v>
+        <v>135.2333333333333</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -9962,8 +10296,14 @@
         <v>0</v>
       </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>135</v>
+      </c>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -9976,19 +10316,19 @@
         <v>135</v>
       </c>
       <c r="C274" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D274" t="n">
         <v>135</v>
       </c>
       <c r="E274" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F274" t="n">
-        <v>19985.9673</v>
+        <v>500</v>
       </c>
       <c r="G274" t="n">
-        <v>135.4</v>
+        <v>135.25</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -9997,8 +10337,14 @@
         <v>0</v>
       </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>135</v>
+      </c>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -10008,22 +10354,22 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C275" t="n">
         <v>134</v>
       </c>
       <c r="D275" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E275" t="n">
         <v>134</v>
       </c>
       <c r="F275" t="n">
-        <v>621.8977</v>
+        <v>19985.9673</v>
       </c>
       <c r="G275" t="n">
-        <v>135.5</v>
+        <v>135.2666666666667</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -10032,8 +10378,14 @@
         <v>0</v>
       </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>135</v>
+      </c>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -10043,22 +10395,22 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C276" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D276" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E276" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F276" t="n">
-        <v>108.0293</v>
+        <v>621.8977</v>
       </c>
       <c r="G276" t="n">
-        <v>135.4</v>
+        <v>135.2666666666667</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -10067,8 +10419,14 @@
         <v>0</v>
       </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>135</v>
+      </c>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -10078,22 +10436,22 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C277" t="n">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D277" t="n">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E277" t="n">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F277" t="n">
-        <v>1</v>
+        <v>108.0293</v>
       </c>
       <c r="G277" t="n">
-        <v>135.45</v>
+        <v>135.25</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -10102,8 +10460,14 @@
         <v>0</v>
       </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>135</v>
+      </c>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -10113,22 +10477,22 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C278" t="n">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D278" t="n">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E278" t="n">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F278" t="n">
-        <v>691.3703</v>
+        <v>1</v>
       </c>
       <c r="G278" t="n">
-        <v>135.5</v>
+        <v>135.2666666666667</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -10137,8 +10501,14 @@
         <v>0</v>
       </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>135</v>
+      </c>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -10148,22 +10518,22 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C279" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D279" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E279" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F279" t="n">
-        <v>4255.5037</v>
+        <v>691.3703</v>
       </c>
       <c r="G279" t="n">
-        <v>135.55</v>
+        <v>135.25</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -10172,8 +10542,14 @@
         <v>0</v>
       </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>135</v>
+      </c>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -10183,22 +10559,22 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C280" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D280" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E280" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F280" t="n">
-        <v>6057.2825</v>
+        <v>4255.5037</v>
       </c>
       <c r="G280" t="n">
-        <v>135.45</v>
+        <v>135.1833333333333</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -10207,8 +10583,14 @@
         <v>0</v>
       </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>135</v>
+      </c>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -10218,22 +10600,22 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C281" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D281" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E281" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F281" t="n">
-        <v>1</v>
+        <v>6057.2825</v>
       </c>
       <c r="G281" t="n">
-        <v>135.45</v>
+        <v>135.1333333333333</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -10242,8 +10624,14 @@
         <v>0</v>
       </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>135</v>
+      </c>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -10256,19 +10644,19 @@
         <v>135</v>
       </c>
       <c r="C282" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D282" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E282" t="n">
         <v>135</v>
       </c>
       <c r="F282" t="n">
-        <v>3774.7542</v>
+        <v>1</v>
       </c>
       <c r="G282" t="n">
-        <v>135.4</v>
+        <v>135.1</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -10277,8 +10665,14 @@
         <v>0</v>
       </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>135</v>
+      </c>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -10288,7 +10682,7 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C283" t="n">
         <v>136</v>
@@ -10297,13 +10691,13 @@
         <v>136</v>
       </c>
       <c r="E283" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F283" t="n">
-        <v>827.0513999999999</v>
+        <v>3774.7542</v>
       </c>
       <c r="G283" t="n">
-        <v>135.4</v>
+        <v>135.1333333333333</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -10312,8 +10706,14 @@
         <v>0</v>
       </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>135</v>
+      </c>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -10323,22 +10723,22 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C284" t="n">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D284" t="n">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E284" t="n">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F284" t="n">
-        <v>7889.1755</v>
+        <v>827.0513999999999</v>
       </c>
       <c r="G284" t="n">
-        <v>135.3</v>
+        <v>135.1666666666667</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -10347,8 +10747,14 @@
         <v>0</v>
       </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>135</v>
+      </c>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -10361,19 +10767,19 @@
         <v>134</v>
       </c>
       <c r="C285" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D285" t="n">
         <v>134</v>
       </c>
       <c r="E285" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F285" t="n">
-        <v>442.0592</v>
+        <v>7889.1755</v>
       </c>
       <c r="G285" t="n">
-        <v>135.2</v>
+        <v>135.15</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -10382,8 +10788,14 @@
         <v>0</v>
       </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>135</v>
+      </c>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -10405,10 +10817,10 @@
         <v>134</v>
       </c>
       <c r="F286" t="n">
-        <v>500</v>
+        <v>442.0592</v>
       </c>
       <c r="G286" t="n">
-        <v>135.05</v>
+        <v>135.15</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -10417,8 +10829,14 @@
         <v>0</v>
       </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>135</v>
+      </c>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -10440,10 +10858,10 @@
         <v>134</v>
       </c>
       <c r="F287" t="n">
-        <v>586</v>
+        <v>500</v>
       </c>
       <c r="G287" t="n">
-        <v>134.9</v>
+        <v>135.1666666666667</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -10452,8 +10870,14 @@
         <v>0</v>
       </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>135</v>
+      </c>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -10475,10 +10899,10 @@
         <v>134</v>
       </c>
       <c r="F288" t="n">
-        <v>1000</v>
+        <v>586</v>
       </c>
       <c r="G288" t="n">
-        <v>134.75</v>
+        <v>135.1333333333333</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -10487,8 +10911,14 @@
         <v>0</v>
       </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>135</v>
+      </c>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -10498,22 +10928,22 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C289" t="n">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D289" t="n">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E289" t="n">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F289" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="G289" t="n">
-        <v>134.7</v>
+        <v>135.15</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -10522,8 +10952,14 @@
         <v>0</v>
       </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>135</v>
+      </c>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -10545,10 +10981,10 @@
         <v>136</v>
       </c>
       <c r="F290" t="n">
-        <v>2888.6617</v>
+        <v>1</v>
       </c>
       <c r="G290" t="n">
-        <v>134.75</v>
+        <v>135.2</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -10557,8 +10993,14 @@
         <v>0</v>
       </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>135</v>
+      </c>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -10568,22 +11010,22 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C291" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D291" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E291" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F291" t="n">
-        <v>10000</v>
+        <v>2888.6617</v>
       </c>
       <c r="G291" t="n">
-        <v>134.65</v>
+        <v>135.25</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -10592,8 +11034,14 @@
         <v>0</v>
       </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>135</v>
+      </c>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -10615,10 +11063,10 @@
         <v>135</v>
       </c>
       <c r="F292" t="n">
-        <v>83.2842</v>
+        <v>10000</v>
       </c>
       <c r="G292" t="n">
-        <v>134.65</v>
+        <v>135.2333333333333</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -10627,8 +11075,14 @@
         <v>0</v>
       </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>135</v>
+      </c>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -10638,22 +11092,22 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C293" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D293" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E293" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F293" t="n">
-        <v>1</v>
+        <v>83.2842</v>
       </c>
       <c r="G293" t="n">
-        <v>134.7</v>
+        <v>135.2166666666667</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -10662,8 +11116,14 @@
         <v>0</v>
       </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>135</v>
+      </c>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -10673,22 +11133,22 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C294" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D294" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E294" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F294" t="n">
-        <v>5410.6697</v>
+        <v>1</v>
       </c>
       <c r="G294" t="n">
-        <v>134.7</v>
+        <v>135.2666666666667</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -10697,8 +11157,14 @@
         <v>0</v>
       </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>135</v>
+      </c>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -10708,22 +11174,22 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C295" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D295" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E295" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F295" t="n">
-        <v>10</v>
+        <v>5410.6697</v>
       </c>
       <c r="G295" t="n">
-        <v>134.8</v>
+        <v>135.3</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -10732,8 +11198,14 @@
         <v>0</v>
       </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>135</v>
+      </c>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -10743,22 +11215,22 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C296" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D296" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E296" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F296" t="n">
-        <v>200.3448</v>
+        <v>10</v>
       </c>
       <c r="G296" t="n">
-        <v>134.9</v>
+        <v>135.35</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -10767,8 +11239,14 @@
         <v>0</v>
       </c>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>135</v>
+      </c>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -10790,10 +11268,10 @@
         <v>135</v>
       </c>
       <c r="F297" t="n">
-        <v>792.216</v>
+        <v>200.3448</v>
       </c>
       <c r="G297" t="n">
-        <v>134.85</v>
+        <v>135.3833333333333</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -10802,8 +11280,14 @@
         <v>0</v>
       </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>135</v>
+      </c>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -10825,10 +11309,10 @@
         <v>135</v>
       </c>
       <c r="F298" t="n">
-        <v>2820.0534</v>
+        <v>792.216</v>
       </c>
       <c r="G298" t="n">
-        <v>134.9</v>
+        <v>135.3666666666667</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -10837,8 +11321,14 @@
         <v>0</v>
       </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>135</v>
+      </c>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -10860,10 +11350,10 @@
         <v>135</v>
       </c>
       <c r="F299" t="n">
-        <v>7405.8793</v>
+        <v>2820.0534</v>
       </c>
       <c r="G299" t="n">
-        <v>134.9</v>
+        <v>135.3666666666667</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -10872,8 +11362,14 @@
         <v>0</v>
       </c>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>135</v>
+      </c>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -10895,10 +11391,10 @@
         <v>135</v>
       </c>
       <c r="F300" t="n">
-        <v>792.2159</v>
+        <v>7405.8793</v>
       </c>
       <c r="G300" t="n">
-        <v>135</v>
+        <v>135.35</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -10907,8 +11403,14 @@
         <v>0</v>
       </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>135</v>
+      </c>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -10930,10 +11432,10 @@
         <v>135</v>
       </c>
       <c r="F301" t="n">
-        <v>1333.0033</v>
+        <v>792.2159</v>
       </c>
       <c r="G301" t="n">
-        <v>135</v>
+        <v>135.3166666666667</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -10942,8 +11444,14 @@
         <v>0</v>
       </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>135</v>
+      </c>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -10953,33 +11461,80 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C302" t="n">
+        <v>135</v>
+      </c>
+      <c r="D302" t="n">
+        <v>135</v>
+      </c>
+      <c r="E302" t="n">
+        <v>135</v>
+      </c>
+      <c r="F302" t="n">
+        <v>1333.0033</v>
+      </c>
+      <c r="G302" t="n">
+        <v>135.3166666666667</v>
+      </c>
+      <c r="H302" t="n">
+        <v>0</v>
+      </c>
+      <c r="I302" t="n">
+        <v>0</v>
+      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>135</v>
+      </c>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M302" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="n">
+        <v>134</v>
+      </c>
+      <c r="C303" t="n">
         <v>133</v>
       </c>
-      <c r="D302" t="n">
-        <v>134</v>
-      </c>
-      <c r="E302" t="n">
+      <c r="D303" t="n">
+        <v>134</v>
+      </c>
+      <c r="E303" t="n">
         <v>133</v>
       </c>
-      <c r="F302" t="n">
+      <c r="F303" t="n">
         <v>9381.304099999999</v>
       </c>
-      <c r="G302" t="n">
-        <v>134.95</v>
-      </c>
-      <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="n">
-        <v>0</v>
-      </c>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
-      <c r="M302" t="n">
+      <c r="G303" t="n">
+        <v>135.2166666666667</v>
+      </c>
+      <c r="H303" t="n">
+        <v>0</v>
+      </c>
+      <c r="I303" t="n">
+        <v>0</v>
+      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>135</v>
+      </c>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M303" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-30 BackTest FX.xlsx
+++ b/BackTest/2019-10-30 BackTest FX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -715,14 +715,10 @@
         <v>-947.489499999996</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>135</v>
-      </c>
-      <c r="J10" t="n">
-        <v>135</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
@@ -755,14 +751,8 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>135</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -794,14 +784,8 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>135</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -833,14 +817,8 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>135</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -872,14 +850,8 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>135</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -911,14 +883,8 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>135</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -950,14 +916,8 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>135</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -989,14 +949,8 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>135</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1028,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>135</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1067,14 +1015,8 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>135</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1106,14 +1048,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>135</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1145,14 +1081,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>135</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1184,14 +1114,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>135</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1223,14 +1147,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>135</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1262,14 +1180,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>135</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1301,14 +1213,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>135</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1340,14 +1246,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>135</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1379,14 +1279,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>135</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1418,14 +1312,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>135</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1457,14 +1345,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>135</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1496,14 +1378,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>135</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1535,14 +1411,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>135</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1574,14 +1444,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>135</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1613,14 +1477,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>135</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1652,14 +1510,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>135</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1691,14 +1543,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>135</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1730,14 +1576,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>135</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1769,14 +1609,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>135</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1808,14 +1642,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>135</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1847,14 +1675,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>135</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1886,14 +1708,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>135</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1925,14 +1741,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>135</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1964,14 +1774,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>135</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2003,14 +1807,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>135</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2042,14 +1840,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>135</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2081,14 +1873,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>135</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2120,14 +1906,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>135</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2159,14 +1939,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>135</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2198,14 +1972,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>135</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2237,14 +2005,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>135</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2276,14 +2038,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>135</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2315,14 +2071,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>135</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2354,14 +2104,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>135</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2393,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>135</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2432,14 +2170,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>135</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2471,14 +2203,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>135</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2510,14 +2236,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>135</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2549,14 +2269,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>135</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2588,14 +2302,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>135</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2627,14 +2335,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>135</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2666,14 +2368,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>135</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2705,14 +2401,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>135</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2744,14 +2434,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>135</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2783,14 +2467,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>135</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2822,14 +2500,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>135</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2861,14 +2533,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>135</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2897,19 +2563,13 @@
         <v>25024.2101</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>135</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
-        <v>1.046851851851852</v>
+        <v>1</v>
       </c>
       <c r="M66" t="inlineStr"/>
     </row>
@@ -2936,7 +2596,7 @@
         <v>32334.7424</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2969,7 +2629,7 @@
         <v>33662.9513</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -3002,7 +2662,7 @@
         <v>33662.9513</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -3035,7 +2695,7 @@
         <v>33662.9513</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -3068,7 +2728,7 @@
         <v>41912.606</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -3101,7 +2761,7 @@
         <v>41912.606</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3134,7 +2794,7 @@
         <v>41912.606</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3167,7 +2827,7 @@
         <v>41373.9662</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3200,7 +2860,7 @@
         <v>41373.9662</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3233,7 +2893,7 @@
         <v>41373.9662</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3266,7 +2926,7 @@
         <v>41373.9662</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3365,7 +3025,7 @@
         <v>39662.7407</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3530,7 +3190,7 @@
         <v>51519.61240000001</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3563,7 +3223,7 @@
         <v>51519.61240000001</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3629,7 +3289,7 @@
         <v>69486.66469726028</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3662,7 +3322,7 @@
         <v>69486.66469726028</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3695,7 +3355,7 @@
         <v>49983.02729726028</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3728,7 +3388,7 @@
         <v>49983.02729726028</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3761,7 +3421,7 @@
         <v>49983.02729726028</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3794,7 +3454,7 @@
         <v>41109.64369726028</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3827,7 +3487,7 @@
         <v>43040.6781800189</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3860,7 +3520,7 @@
         <v>43040.6781800189</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3893,7 +3553,7 @@
         <v>39998.1816800189</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3926,7 +3586,7 @@
         <v>39998.1816800189</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3959,7 +3619,7 @@
         <v>32284.0453800189</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3992,7 +3652,7 @@
         <v>32601.1737800189</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4025,7 +3685,7 @@
         <v>36674.9322800189</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4058,7 +3718,7 @@
         <v>35674.9322800189</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4091,7 +3751,7 @@
         <v>35674.9322800189</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4124,7 +3784,7 @@
         <v>35674.9322800189</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4157,7 +3817,7 @@
         <v>35674.9322800189</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4190,7 +3850,7 @@
         <v>35674.9322800189</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4223,7 +3883,7 @@
         <v>45503.3735800189</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4256,7 +3916,7 @@
         <v>54391.3735800189</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4289,7 +3949,7 @@
         <v>44098.4740800189</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4322,7 +3982,7 @@
         <v>68277.42538691545</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4355,7 +4015,7 @@
         <v>70014.27579726027</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4388,7 +4048,7 @@
         <v>105367.8711445576</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4421,7 +4081,7 @@
         <v>105367.8711445576</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4454,7 +4114,7 @@
         <v>105367.8711445576</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4487,7 +4147,7 @@
         <v>105367.8711445576</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4520,7 +4180,7 @@
         <v>99204.59544455758</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4553,7 +4213,7 @@
         <v>99203.59544455758</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4586,7 +4246,7 @@
         <v>99067.59544455758</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4619,7 +4279,7 @@
         <v>99069.59544455758</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4652,7 +4312,7 @@
         <v>99069.59544455758</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4718,7 +4378,7 @@
         <v>76909.72324455758</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4751,7 +4411,7 @@
         <v>76909.72324455758</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4784,7 +4444,7 @@
         <v>56394.29404455758</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4817,7 +4477,7 @@
         <v>46226.54104455758</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4850,7 +4510,7 @@
         <v>24147.52194455758</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4883,7 +4543,7 @@
         <v>24148.52194455758</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4916,7 +4576,7 @@
         <v>23592.04154455758</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4949,7 +4609,7 @@
         <v>5717.96848803584</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4982,7 +4642,7 @@
         <v>5717.96848803584</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5015,7 +4675,7 @@
         <v>5717.96848803584</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5048,7 +4708,7 @@
         <v>5717.96848803584</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5081,7 +4741,7 @@
         <v>7142.62718803584</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5114,7 +4774,7 @@
         <v>-4622.365711964159</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5147,7 +4807,7 @@
         <v>-3783.862311964159</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5180,7 +4840,7 @@
         <v>-7847.43641196416</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5213,7 +4873,7 @@
         <v>-6113.86041196416</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5246,7 +4906,7 @@
         <v>-6113.86041196416</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5279,7 +4939,7 @@
         <v>-5923.73921196416</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5312,7 +4972,7 @@
         <v>-5923.73921196416</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5345,7 +5005,7 @@
         <v>-5889.73921196416</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5378,7 +5038,7 @@
         <v>-5889.73921196416</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5411,7 +5071,7 @@
         <v>-5889.73921196416</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5444,7 +5104,7 @@
         <v>-5888.73921196416</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5477,7 +5137,7 @@
         <v>-12536.52181196416</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5510,7 +5170,7 @@
         <v>-12536.52181196416</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5609,7 +5269,7 @@
         <v>-13254.97511196416</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5642,7 +5302,7 @@
         <v>-13254.97511196416</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -7160,10 +6820,14 @@
         <v>-180688.2006779216</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>130</v>
+      </c>
+      <c r="J195" t="n">
+        <v>130</v>
+      </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
@@ -7196,8 +6860,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>130</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7229,8 +6899,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>130</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7622,7 +7298,7 @@
         <v>-214407.9467779216</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I209" t="n">
         <v>130</v>
@@ -7659,9 +7335,11 @@
         <v>-221203.4307779216</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>130</v>
+      </c>
       <c r="J210" t="n">
         <v>130</v>
       </c>
@@ -7698,9 +7376,11 @@
         <v>-214769.2052779216</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>129</v>
+      </c>
       <c r="J211" t="n">
         <v>130</v>
       </c>
@@ -7737,9 +7417,11 @@
         <v>-214769.2052779216</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>130</v>
+      </c>
       <c r="J212" t="n">
         <v>130</v>
       </c>
@@ -7776,9 +7458,11 @@
         <v>-212983.3654779216</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>130</v>
+      </c>
       <c r="J213" t="n">
         <v>130</v>
       </c>
@@ -7815,9 +7499,11 @@
         <v>-212982.3654779216</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>131</v>
+      </c>
       <c r="J214" t="n">
         <v>130</v>
       </c>
@@ -7854,9 +7540,11 @@
         <v>-212982.3654779216</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>132</v>
+      </c>
       <c r="J215" t="n">
         <v>130</v>
       </c>
@@ -8088,9 +7776,11 @@
         <v>-216054.3459779216</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>131</v>
+      </c>
       <c r="J221" t="n">
         <v>130</v>
       </c>
@@ -8127,9 +7817,11 @@
         <v>-216054.3459779216</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>131</v>
+      </c>
       <c r="J222" t="n">
         <v>130</v>
       </c>
@@ -8166,7 +7858,7 @@
         <v>-217006.2793779216</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I223" t="n">
         <v>131</v>
@@ -8207,7 +7899,7 @@
         <v>-216990.2793779216</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I224" t="n">
         <v>130</v>
@@ -8248,7 +7940,7 @@
         <v>-227238.5669779216</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I225" t="n">
         <v>132</v>
@@ -8289,7 +7981,7 @@
         <v>-227238.5669779216</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I226" t="n">
         <v>130</v>
@@ -8330,7 +8022,7 @@
         <v>-227238.5669779216</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I227" t="n">
         <v>130</v>
@@ -8371,7 +8063,7 @@
         <v>-227238.5669779216</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I228" t="n">
         <v>130</v>
@@ -8412,7 +8104,7 @@
         <v>-227238.5669779216</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I229" t="n">
         <v>130</v>
@@ -8453,7 +8145,7 @@
         <v>-237872.1372779216</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I230" t="n">
         <v>130</v>
@@ -8494,7 +8186,7 @@
         <v>-227872.1372779216</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I231" t="n">
         <v>129</v>
@@ -8535,7 +8227,7 @@
         <v>-227872.1372779216</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I232" t="n">
         <v>130</v>
@@ -8576,7 +8268,7 @@
         <v>-227447.8330779216</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I233" t="n">
         <v>130</v>
@@ -8617,7 +8309,7 @@
         <v>-216230.6824779216</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I234" t="n">
         <v>132</v>
@@ -8658,9 +8350,11 @@
         <v>-217785.1318779216</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>136</v>
+      </c>
       <c r="J235" t="n">
         <v>130</v>
       </c>
@@ -8697,9 +8391,11 @@
         <v>-217785.1318779216</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>135</v>
+      </c>
       <c r="J236" t="n">
         <v>130</v>
       </c>
@@ -8892,11 +8588,9 @@
         <v>-195889.4688779216</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
-      </c>
-      <c r="I241" t="n">
-        <v>138</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
         <v>130</v>
       </c>
@@ -9011,11 +8705,9 @@
         <v>-113683.7827779216</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
-      </c>
-      <c r="I244" t="n">
-        <v>138</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
         <v>130</v>
       </c>
@@ -10456,7 +10148,7 @@
         <v>143205.6728498954</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
@@ -13983,6 +13675,6 @@
       <c r="M371" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest FX.xlsx
+++ b/BackTest/2019-10-30 BackTest FX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -3355,7 +3355,7 @@
         <v>49983.02729726028</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>49983.02729726028</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>41109.64369726028</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>43040.6781800189</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>43040.6781800189</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>39998.1816800189</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>39998.1816800189</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>32284.0453800189</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>32601.1737800189</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>36674.9322800189</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>35674.9322800189</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>35674.9322800189</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>35674.9322800189</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>35674.9322800189</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>35674.9322800189</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>45503.3735800189</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>54391.3735800189</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>44098.4740800189</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>68277.42538691545</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>70014.27579726027</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>105367.8711445576</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>105367.8711445576</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>105367.8711445576</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>105367.8711445576</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>99203.59544455758</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>99067.59544455758</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>99069.59544455758</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>99069.59544455758</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>76909.72324455758</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>76909.72324455758</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>56394.29404455758</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>46226.54104455758</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>24147.52194455758</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>24148.52194455758</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>23592.04154455758</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>5717.96848803584</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>5717.96848803584</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>5717.96848803584</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>5717.96848803584</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>7142.62718803584</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-4622.365711964159</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-3783.862311964159</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-7847.43641196416</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-6113.86041196416</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-6113.86041196416</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-5923.73921196416</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-5923.73921196416</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-5889.73921196416</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-5889.73921196416</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-5889.73921196416</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-5888.73921196416</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -6820,14 +6820,10 @@
         <v>-180688.2006779216</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>130</v>
-      </c>
-      <c r="J195" t="n">
-        <v>130</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
@@ -6860,14 +6856,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>130</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6899,14 +6889,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>130</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7298,14 +7282,10 @@
         <v>-214407.9467779216</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>130</v>
-      </c>
-      <c r="J209" t="n">
-        <v>130</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
@@ -7335,665 +7315,551 @@
         <v>-221203.4307779216</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>130</v>
-      </c>
-      <c r="J210" t="n">
-        <v>130</v>
-      </c>
-      <c r="K210" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>129</v>
+      </c>
+      <c r="C211" t="n">
+        <v>130</v>
+      </c>
+      <c r="D211" t="n">
+        <v>130</v>
+      </c>
+      <c r="E211" t="n">
+        <v>129</v>
+      </c>
+      <c r="F211" t="n">
+        <v>6434.2255</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-214769.2052779216</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>130</v>
+      </c>
+      <c r="C212" t="n">
+        <v>130</v>
+      </c>
+      <c r="D212" t="n">
+        <v>130</v>
+      </c>
+      <c r="E212" t="n">
+        <v>130</v>
+      </c>
+      <c r="F212" t="n">
+        <v>3439.3952</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-214769.2052779216</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>131</v>
+      </c>
+      <c r="C213" t="n">
+        <v>131</v>
+      </c>
+      <c r="D213" t="n">
+        <v>131</v>
+      </c>
+      <c r="E213" t="n">
+        <v>131</v>
+      </c>
+      <c r="F213" t="n">
+        <v>1785.8398</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-212983.3654779216</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>132</v>
+      </c>
+      <c r="C214" t="n">
+        <v>132</v>
+      </c>
+      <c r="D214" t="n">
+        <v>132</v>
+      </c>
+      <c r="E214" t="n">
+        <v>132</v>
+      </c>
+      <c r="F214" t="n">
+        <v>1</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-212982.3654779216</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>132</v>
+      </c>
+      <c r="C215" t="n">
+        <v>132</v>
+      </c>
+      <c r="D215" t="n">
+        <v>132</v>
+      </c>
+      <c r="E215" t="n">
+        <v>132</v>
+      </c>
+      <c r="F215" t="n">
+        <v>3673.2727</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-212982.3654779216</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>131</v>
+      </c>
+      <c r="C216" t="n">
+        <v>132</v>
+      </c>
+      <c r="D216" t="n">
+        <v>132</v>
+      </c>
+      <c r="E216" t="n">
+        <v>131</v>
+      </c>
+      <c r="F216" t="n">
+        <v>8036.5905</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-212982.3654779216</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>132</v>
+      </c>
+      <c r="C217" t="n">
+        <v>132</v>
+      </c>
+      <c r="D217" t="n">
+        <v>132</v>
+      </c>
+      <c r="E217" t="n">
+        <v>132</v>
+      </c>
+      <c r="F217" t="n">
+        <v>415.6115</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-212982.3654779216</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>132</v>
+      </c>
+      <c r="C218" t="n">
+        <v>132</v>
+      </c>
+      <c r="D218" t="n">
+        <v>132</v>
+      </c>
+      <c r="E218" t="n">
+        <v>132</v>
+      </c>
+      <c r="F218" t="n">
+        <v>935.126</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-212982.3654779216</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>132</v>
+      </c>
+      <c r="C219" t="n">
+        <v>132</v>
+      </c>
+      <c r="D219" t="n">
+        <v>132</v>
+      </c>
+      <c r="E219" t="n">
+        <v>132</v>
+      </c>
+      <c r="F219" t="n">
+        <v>693.4077</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-212982.3654779216</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>131</v>
+      </c>
+      <c r="C220" t="n">
+        <v>131</v>
+      </c>
+      <c r="D220" t="n">
+        <v>131</v>
+      </c>
+      <c r="E220" t="n">
+        <v>131</v>
+      </c>
+      <c r="F220" t="n">
+        <v>3071.9805</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-216054.3459779216</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>131</v>
+      </c>
+      <c r="C221" t="n">
+        <v>131</v>
+      </c>
+      <c r="D221" t="n">
+        <v>131</v>
+      </c>
+      <c r="E221" t="n">
+        <v>131</v>
+      </c>
+      <c r="F221" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-216054.3459779216</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>131</v>
+      </c>
+      <c r="C222" t="n">
+        <v>131</v>
+      </c>
+      <c r="D222" t="n">
+        <v>131</v>
+      </c>
+      <c r="E222" t="n">
+        <v>131</v>
+      </c>
+      <c r="F222" t="n">
+        <v>5592.785</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-216054.3459779216</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>130</v>
+      </c>
+      <c r="C223" t="n">
+        <v>130</v>
+      </c>
+      <c r="D223" t="n">
+        <v>130</v>
+      </c>
+      <c r="E223" t="n">
+        <v>130</v>
+      </c>
+      <c r="F223" t="n">
+        <v>951.9334</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-217006.2793779216</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>132</v>
+      </c>
+      <c r="C224" t="n">
+        <v>132</v>
+      </c>
+      <c r="D224" t="n">
+        <v>132</v>
+      </c>
+      <c r="E224" t="n">
+        <v>132</v>
+      </c>
+      <c r="F224" t="n">
+        <v>16</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-216990.2793779216</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>130</v>
+      </c>
+      <c r="C225" t="n">
+        <v>130</v>
+      </c>
+      <c r="D225" t="n">
+        <v>130</v>
+      </c>
+      <c r="E225" t="n">
+        <v>130</v>
+      </c>
+      <c r="F225" t="n">
+        <v>10248.2876</v>
+      </c>
+      <c r="G225" t="n">
+        <v>-227238.5669779216</v>
+      </c>
+      <c r="H225" t="n">
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>132</v>
+      </c>
+      <c r="J225" t="n">
+        <v>132</v>
+      </c>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>130</v>
+      </c>
+      <c r="C226" t="n">
+        <v>130</v>
+      </c>
+      <c r="D226" t="n">
+        <v>130</v>
+      </c>
+      <c r="E226" t="n">
+        <v>130</v>
+      </c>
+      <c r="F226" t="n">
+        <v>1729.3208</v>
+      </c>
+      <c r="G226" t="n">
+        <v>-227238.5669779216</v>
+      </c>
+      <c r="H226" t="n">
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>130</v>
+      </c>
+      <c r="J226" t="n">
+        <v>132</v>
+      </c>
+      <c r="K226" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>129</v>
-      </c>
-      <c r="C211" t="n">
-        <v>130</v>
-      </c>
-      <c r="D211" t="n">
-        <v>130</v>
-      </c>
-      <c r="E211" t="n">
-        <v>129</v>
-      </c>
-      <c r="F211" t="n">
-        <v>6434.2255</v>
-      </c>
-      <c r="G211" t="n">
-        <v>-214769.2052779216</v>
-      </c>
-      <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>129</v>
-      </c>
-      <c r="J211" t="n">
-        <v>130</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>130</v>
-      </c>
-      <c r="C212" t="n">
-        <v>130</v>
-      </c>
-      <c r="D212" t="n">
-        <v>130</v>
-      </c>
-      <c r="E212" t="n">
-        <v>130</v>
-      </c>
-      <c r="F212" t="n">
-        <v>3439.3952</v>
-      </c>
-      <c r="G212" t="n">
-        <v>-214769.2052779216</v>
-      </c>
-      <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>130</v>
-      </c>
-      <c r="J212" t="n">
-        <v>130</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>131</v>
-      </c>
-      <c r="C213" t="n">
-        <v>131</v>
-      </c>
-      <c r="D213" t="n">
-        <v>131</v>
-      </c>
-      <c r="E213" t="n">
-        <v>131</v>
-      </c>
-      <c r="F213" t="n">
-        <v>1785.8398</v>
-      </c>
-      <c r="G213" t="n">
-        <v>-212983.3654779216</v>
-      </c>
-      <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>130</v>
-      </c>
-      <c r="J213" t="n">
-        <v>130</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>132</v>
-      </c>
-      <c r="C214" t="n">
-        <v>132</v>
-      </c>
-      <c r="D214" t="n">
-        <v>132</v>
-      </c>
-      <c r="E214" t="n">
-        <v>132</v>
-      </c>
-      <c r="F214" t="n">
-        <v>1</v>
-      </c>
-      <c r="G214" t="n">
-        <v>-212982.3654779216</v>
-      </c>
-      <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>131</v>
-      </c>
-      <c r="J214" t="n">
-        <v>130</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>132</v>
-      </c>
-      <c r="C215" t="n">
-        <v>132</v>
-      </c>
-      <c r="D215" t="n">
-        <v>132</v>
-      </c>
-      <c r="E215" t="n">
-        <v>132</v>
-      </c>
-      <c r="F215" t="n">
-        <v>3673.2727</v>
-      </c>
-      <c r="G215" t="n">
-        <v>-212982.3654779216</v>
-      </c>
-      <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>132</v>
-      </c>
-      <c r="J215" t="n">
-        <v>130</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>131</v>
-      </c>
-      <c r="C216" t="n">
-        <v>132</v>
-      </c>
-      <c r="D216" t="n">
-        <v>132</v>
-      </c>
-      <c r="E216" t="n">
-        <v>131</v>
-      </c>
-      <c r="F216" t="n">
-        <v>8036.5905</v>
-      </c>
-      <c r="G216" t="n">
-        <v>-212982.3654779216</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>130</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>132</v>
-      </c>
-      <c r="C217" t="n">
-        <v>132</v>
-      </c>
-      <c r="D217" t="n">
-        <v>132</v>
-      </c>
-      <c r="E217" t="n">
-        <v>132</v>
-      </c>
-      <c r="F217" t="n">
-        <v>415.6115</v>
-      </c>
-      <c r="G217" t="n">
-        <v>-212982.3654779216</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>130</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>132</v>
-      </c>
-      <c r="C218" t="n">
-        <v>132</v>
-      </c>
-      <c r="D218" t="n">
-        <v>132</v>
-      </c>
-      <c r="E218" t="n">
-        <v>132</v>
-      </c>
-      <c r="F218" t="n">
-        <v>935.126</v>
-      </c>
-      <c r="G218" t="n">
-        <v>-212982.3654779216</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>130</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>132</v>
-      </c>
-      <c r="C219" t="n">
-        <v>132</v>
-      </c>
-      <c r="D219" t="n">
-        <v>132</v>
-      </c>
-      <c r="E219" t="n">
-        <v>132</v>
-      </c>
-      <c r="F219" t="n">
-        <v>693.4077</v>
-      </c>
-      <c r="G219" t="n">
-        <v>-212982.3654779216</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>130</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>131</v>
-      </c>
-      <c r="C220" t="n">
-        <v>131</v>
-      </c>
-      <c r="D220" t="n">
-        <v>131</v>
-      </c>
-      <c r="E220" t="n">
-        <v>131</v>
-      </c>
-      <c r="F220" t="n">
-        <v>3071.9805</v>
-      </c>
-      <c r="G220" t="n">
-        <v>-216054.3459779216</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>130</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>131</v>
-      </c>
-      <c r="C221" t="n">
-        <v>131</v>
-      </c>
-      <c r="D221" t="n">
-        <v>131</v>
-      </c>
-      <c r="E221" t="n">
-        <v>131</v>
-      </c>
-      <c r="F221" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G221" t="n">
-        <v>-216054.3459779216</v>
-      </c>
-      <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>131</v>
-      </c>
-      <c r="J221" t="n">
-        <v>130</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>131</v>
-      </c>
-      <c r="C222" t="n">
-        <v>131</v>
-      </c>
-      <c r="D222" t="n">
-        <v>131</v>
-      </c>
-      <c r="E222" t="n">
-        <v>131</v>
-      </c>
-      <c r="F222" t="n">
-        <v>5592.785</v>
-      </c>
-      <c r="G222" t="n">
-        <v>-216054.3459779216</v>
-      </c>
-      <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>131</v>
-      </c>
-      <c r="J222" t="n">
-        <v>130</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>130</v>
-      </c>
-      <c r="C223" t="n">
-        <v>130</v>
-      </c>
-      <c r="D223" t="n">
-        <v>130</v>
-      </c>
-      <c r="E223" t="n">
-        <v>130</v>
-      </c>
-      <c r="F223" t="n">
-        <v>951.9334</v>
-      </c>
-      <c r="G223" t="n">
-        <v>-217006.2793779216</v>
-      </c>
-      <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>131</v>
-      </c>
-      <c r="J223" t="n">
-        <v>130</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>132</v>
-      </c>
-      <c r="C224" t="n">
-        <v>132</v>
-      </c>
-      <c r="D224" t="n">
-        <v>132</v>
-      </c>
-      <c r="E224" t="n">
-        <v>132</v>
-      </c>
-      <c r="F224" t="n">
-        <v>16</v>
-      </c>
-      <c r="G224" t="n">
-        <v>-216990.2793779216</v>
-      </c>
-      <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>130</v>
-      </c>
-      <c r="J224" t="n">
-        <v>130</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>130</v>
-      </c>
-      <c r="C225" t="n">
-        <v>130</v>
-      </c>
-      <c r="D225" t="n">
-        <v>130</v>
-      </c>
-      <c r="E225" t="n">
-        <v>130</v>
-      </c>
-      <c r="F225" t="n">
-        <v>10248.2876</v>
-      </c>
-      <c r="G225" t="n">
-        <v>-227238.5669779216</v>
-      </c>
-      <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>132</v>
-      </c>
-      <c r="J225" t="n">
-        <v>130</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>130</v>
-      </c>
-      <c r="C226" t="n">
-        <v>130</v>
-      </c>
-      <c r="D226" t="n">
-        <v>130</v>
-      </c>
-      <c r="E226" t="n">
-        <v>130</v>
-      </c>
-      <c r="F226" t="n">
-        <v>1729.3208</v>
-      </c>
-      <c r="G226" t="n">
-        <v>-227238.5669779216</v>
-      </c>
-      <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>130</v>
-      </c>
-      <c r="J226" t="n">
-        <v>130</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8028,11 +7894,11 @@
         <v>130</v>
       </c>
       <c r="J227" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L227" t="n">
@@ -8071,11 +7937,7 @@
       <c r="J228" t="n">
         <v>130</v>
       </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8114,7 +7976,7 @@
       </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L229" t="n">
@@ -8155,7 +8017,7 @@
       </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L230" t="n">
@@ -8350,11 +8212,9 @@
         <v>-217785.1318779216</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>136</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
         <v>130</v>
       </c>
@@ -8391,11 +8251,9 @@
         <v>-217785.1318779216</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>135</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
         <v>130</v>
       </c>
@@ -8783,7 +8641,7 @@
         <v>-6829.141277921619</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
@@ -8791,13 +8649,15 @@
       </c>
       <c r="K246" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+        <v>1.102692307692308</v>
+      </c>
+      <c r="M246" t="n">
+        <v>1.15625</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8822,17 +8682,11 @@
         <v>-11241.10407792162</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>130</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8864,14 +8718,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>130</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8903,14 +8751,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>130</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8942,14 +8784,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>130</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8981,14 +8817,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>130</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9020,14 +8850,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>130</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9059,14 +8883,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>130</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9098,14 +8916,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>130</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9137,14 +8949,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>130</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9176,14 +8982,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>130</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9215,14 +9015,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>130</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9254,14 +9048,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>130</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9293,14 +9081,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>130</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9332,14 +9114,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>130</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9371,14 +9147,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>130</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9410,14 +9180,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>130</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9449,14 +9213,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>130</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9488,14 +9246,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>130</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9527,14 +9279,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>130</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9566,14 +9312,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>130</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9605,14 +9345,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>130</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9641,17 +9375,11 @@
         <v>133015.9655657227</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>130</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9680,17 +9408,11 @@
         <v>133015.9655657227</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>130</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9719,17 +9441,11 @@
         <v>133015.9655657227</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>130</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9758,17 +9474,11 @@
         <v>133015.9655657227</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>130</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9797,17 +9507,11 @@
         <v>133015.9655657227</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>130</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9836,17 +9540,11 @@
         <v>128086.0446657227</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>130</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9875,17 +9573,11 @@
         <v>129501.0751657227</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>130</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9917,14 +9609,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>130</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9953,17 +9639,11 @@
         <v>129502.0751657227</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>130</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9992,17 +9672,11 @@
         <v>129502.0751657227</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>130</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10031,17 +9705,11 @@
         <v>144136.7528498954</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>130</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10070,17 +9738,11 @@
         <v>143102.6598498954</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>130</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10109,17 +9771,11 @@
         <v>143418.1891498954</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>130</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10151,14 +9807,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>130</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10190,14 +9840,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>130</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10229,14 +9873,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>130</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10268,14 +9906,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>130</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10307,14 +9939,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>130</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10346,14 +9972,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>130</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10385,14 +10005,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>130</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10424,14 +10038,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>130</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10463,14 +10071,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>130</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10502,14 +10104,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>130</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10541,14 +10137,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>130</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10580,14 +10170,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>130</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10619,14 +10203,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>130</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10658,14 +10236,8 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>130</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10697,14 +10269,8 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>130</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10736,14 +10302,8 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>130</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10775,14 +10335,8 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>130</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10814,14 +10368,8 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>130</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10853,14 +10401,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>130</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10892,14 +10434,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>130</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10931,14 +10467,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>130</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10970,14 +10500,8 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>130</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11009,14 +10533,8 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>130</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11048,14 +10566,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>130</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11087,14 +10599,8 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>130</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11126,14 +10632,8 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>130</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11165,14 +10665,8 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>130</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11204,14 +10698,8 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>130</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11243,14 +10731,8 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>130</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11282,14 +10764,8 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>130</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11321,14 +10797,8 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>130</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11360,14 +10830,8 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>130</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11399,14 +10863,8 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>130</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11438,14 +10896,8 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>130</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11477,14 +10929,8 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>130</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11516,14 +10962,8 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>130</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11555,14 +10995,8 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>130</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11594,14 +11028,8 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>130</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11633,14 +11061,8 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>130</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11672,14 +11094,8 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>130</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11711,14 +11127,8 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>130</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11750,14 +11160,8 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>130</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11789,14 +11193,8 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>130</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11828,14 +11226,8 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>130</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11867,14 +11259,8 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>130</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11906,14 +11292,8 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>130</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11945,14 +11325,8 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>130</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11984,14 +11358,8 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>130</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12023,14 +11391,8 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>130</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12062,14 +11424,8 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>130</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12101,14 +11457,8 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>130</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12140,14 +11490,8 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>130</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12179,14 +11523,8 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>130</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12218,14 +11556,8 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>130</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12257,14 +11589,8 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>130</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12296,14 +11622,8 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>130</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12335,14 +11655,8 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>130</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12374,14 +11688,8 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>130</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12413,14 +11721,8 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>130</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12452,14 +11754,8 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>130</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12491,14 +11787,8 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>130</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12530,14 +11820,8 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>130</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12569,14 +11853,8 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>130</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12608,14 +11886,8 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>130</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12647,14 +11919,8 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>130</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12686,14 +11952,8 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>130</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12725,14 +11985,8 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>130</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12764,14 +12018,8 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>130</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12803,14 +12051,8 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>130</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12842,14 +12084,8 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>130</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12881,14 +12117,8 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>130</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12920,14 +12150,8 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>130</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12959,14 +12183,8 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>130</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12998,14 +12216,8 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>130</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13037,14 +12249,8 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>130</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13076,14 +12282,8 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>130</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13115,14 +12315,8 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>130</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13154,14 +12348,8 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>130</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13193,14 +12381,8 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>130</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13232,14 +12414,8 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>130</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13271,14 +12447,8 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>130</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13310,14 +12480,8 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>130</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13349,14 +12513,8 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>130</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13388,14 +12546,8 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>130</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13427,14 +12579,8 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>130</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13466,14 +12612,8 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>130</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13505,14 +12645,8 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>130</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13544,14 +12678,8 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>130</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13583,14 +12711,8 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>130</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13622,14 +12744,8 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>130</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13661,20 +12777,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>130</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
       <c r="M371" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest FX.xlsx
+++ b/BackTest/2019-10-30 BackTest FX.xlsx
@@ -3355,7 +3355,7 @@
         <v>49983.02729726028</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>41109.64369726028</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>43040.6781800189</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>43040.6781800189</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>39998.1816800189</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>32284.0453800189</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>35674.9322800189</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>35674.9322800189</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>35674.9322800189</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>35674.9322800189</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>54391.3735800189</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>44098.4740800189</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>70014.27579726027</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>105367.8711445576</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>105367.8711445576</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>105367.8711445576</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>105367.8711445576</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>99204.59544455758</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>99203.59544455758</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>99067.59544455758</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>99069.59544455758</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>99069.59544455758</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>99069.59544455758</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>76909.72324455758</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>76909.72324455758</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -7348,11 +7348,17 @@
         <v>-214769.2052779216</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>129</v>
+      </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7381,11 +7387,17 @@
         <v>-214769.2052779216</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>130</v>
+      </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7414,11 +7426,17 @@
         <v>-212983.3654779216</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>130</v>
+      </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7447,11 +7465,17 @@
         <v>-212982.3654779216</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>131</v>
+      </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7480,11 +7504,17 @@
         <v>-212982.3654779216</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>132</v>
+      </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7517,7 +7547,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7550,7 +7584,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7583,7 +7621,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7616,7 +7658,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7649,7 +7695,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7678,11 +7728,17 @@
         <v>-216054.3459779216</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>131</v>
+      </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7715,7 +7771,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7744,11 +7804,17 @@
         <v>-217006.2793779216</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>131</v>
+      </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7777,11 +7843,17 @@
         <v>-216990.2793779216</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>130</v>
+      </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7815,10 +7887,12 @@
       <c r="I225" t="n">
         <v>132</v>
       </c>
-      <c r="J225" t="n">
-        <v>132</v>
-      </c>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7852,12 +7926,10 @@
       <c r="I226" t="n">
         <v>130</v>
       </c>
-      <c r="J226" t="n">
-        <v>132</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L226" t="n">
@@ -7893,12 +7965,10 @@
       <c r="I227" t="n">
         <v>130</v>
       </c>
-      <c r="J227" t="n">
-        <v>132</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L227" t="n">
@@ -7934,10 +8004,12 @@
       <c r="I228" t="n">
         <v>130</v>
       </c>
-      <c r="J228" t="n">
-        <v>130</v>
-      </c>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7971,12 +8043,10 @@
       <c r="I229" t="n">
         <v>130</v>
       </c>
-      <c r="J229" t="n">
-        <v>130</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L229" t="n">
@@ -8012,12 +8082,10 @@
       <c r="I230" t="n">
         <v>130</v>
       </c>
-      <c r="J230" t="n">
-        <v>130</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L230" t="n">
@@ -8053,9 +8121,7 @@
       <c r="I231" t="n">
         <v>129</v>
       </c>
-      <c r="J231" t="n">
-        <v>130</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8094,9 +8160,7 @@
       <c r="I232" t="n">
         <v>130</v>
       </c>
-      <c r="J232" t="n">
-        <v>130</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8135,9 +8199,7 @@
       <c r="I233" t="n">
         <v>130</v>
       </c>
-      <c r="J233" t="n">
-        <v>130</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8176,9 +8238,7 @@
       <c r="I234" t="n">
         <v>132</v>
       </c>
-      <c r="J234" t="n">
-        <v>130</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8212,12 +8272,12 @@
         <v>-217785.1318779216</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>130</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>136</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8251,12 +8311,12 @@
         <v>-217785.1318779216</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>130</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>135</v>
+      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8290,12 +8350,12 @@
         <v>-206766.1086779216</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>130</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>135</v>
+      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8329,12 +8389,12 @@
         <v>-198509.2803779216</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>130</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>136</v>
+      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8368,12 +8428,12 @@
         <v>-198509.2803779216</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>130</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>137</v>
+      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8407,12 +8467,12 @@
         <v>-195889.4688779216</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>130</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>137</v>
+      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8446,12 +8506,12 @@
         <v>-195889.4688779216</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>130</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>138</v>
+      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8488,9 +8548,7 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>130</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8527,9 +8585,7 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>130</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8566,9 +8622,7 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>130</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8605,9 +8659,7 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>130</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8641,23 +8693,19 @@
         <v>-6829.141277921619</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>130</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L246" t="n">
-        <v>1.102692307692308</v>
-      </c>
-      <c r="M246" t="n">
-        <v>1.15625</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8682,11 +8730,15 @@
         <v>-11241.10407792162</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8719,7 +8771,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8752,7 +8808,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8785,7 +8845,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8818,7 +8882,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8851,7 +8919,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8884,7 +8956,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8917,7 +8993,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8950,7 +9030,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8983,7 +9067,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9016,7 +9104,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9049,7 +9141,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9082,7 +9178,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9115,7 +9215,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9148,7 +9252,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9181,7 +9289,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9214,7 +9326,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9247,7 +9363,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9280,7 +9400,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9313,7 +9437,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9346,7 +9474,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9375,11 +9507,15 @@
         <v>133015.9655657227</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9408,11 +9544,15 @@
         <v>133015.9655657227</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9441,11 +9581,15 @@
         <v>133015.9655657227</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9474,11 +9618,15 @@
         <v>133015.9655657227</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9507,11 +9655,15 @@
         <v>133015.9655657227</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9540,11 +9692,15 @@
         <v>128086.0446657227</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9573,11 +9729,15 @@
         <v>129501.0751657227</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9610,7 +9770,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9639,11 +9803,15 @@
         <v>129502.0751657227</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9672,11 +9840,15 @@
         <v>129502.0751657227</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9705,11 +9877,15 @@
         <v>144136.7528498954</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9738,11 +9914,15 @@
         <v>143102.6598498954</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9771,11 +9951,15 @@
         <v>143418.1891498954</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9808,7 +9992,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9841,7 +10029,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9874,7 +10066,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9907,7 +10103,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9940,7 +10140,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9973,7 +10177,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10006,7 +10214,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10039,7 +10251,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10072,7 +10288,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10105,7 +10325,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10138,7 +10362,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10171,7 +10399,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10204,7 +10436,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10237,7 +10473,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10270,7 +10510,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10303,7 +10547,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10336,7 +10584,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10369,7 +10621,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10402,7 +10658,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10435,7 +10695,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10468,7 +10732,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10501,7 +10769,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10534,7 +10806,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10567,7 +10843,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10600,7 +10880,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10633,7 +10917,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10666,7 +10954,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10699,7 +10991,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10732,7 +11028,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10765,7 +11065,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10798,7 +11102,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10831,7 +11139,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10864,7 +11176,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10897,7 +11213,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10930,7 +11250,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10963,7 +11287,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10996,7 +11324,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11029,7 +11361,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11062,7 +11398,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11095,7 +11435,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11128,7 +11472,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11161,7 +11509,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11194,7 +11546,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11227,7 +11583,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11260,7 +11620,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11293,7 +11657,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11326,7 +11694,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11359,7 +11731,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11392,7 +11768,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11425,7 +11805,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11458,7 +11842,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11491,7 +11879,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11524,7 +11916,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11557,7 +11953,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11590,7 +11990,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11623,7 +12027,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11656,7 +12064,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11689,7 +12101,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11722,7 +12138,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11755,7 +12175,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11788,7 +12212,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11821,7 +12249,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11854,7 +12286,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11887,7 +12323,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11920,7 +12360,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11953,7 +12397,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11986,7 +12434,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12019,7 +12471,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12052,7 +12508,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12085,7 +12545,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12118,7 +12582,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12151,7 +12619,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12184,7 +12656,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12217,7 +12693,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12250,7 +12730,11 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12283,7 +12767,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12316,7 +12804,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12349,7 +12841,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12382,7 +12878,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12415,7 +12915,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12448,7 +12952,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12481,7 +12989,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12514,7 +13026,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12547,7 +13063,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12580,7 +13100,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12613,7 +13137,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12646,7 +13174,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12679,7 +13211,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12712,7 +13248,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12745,7 +13285,11 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12778,7 +13322,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
